--- a/src/main/resources/info/Webshop product backlog.xlsx
+++ b/src/main/resources/info/Webshop product backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>Epic</t>
   </si>
@@ -270,15 +270,6 @@
   </si>
   <si>
     <t>Deployment project in internet</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint count</t>
-  </si>
-  <si>
-    <t>Today</t>
   </si>
   <si>
     <t>Document is not full</t>
@@ -288,10 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -310,13 +298,8 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,12 +370,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor rgb="FFA2C4C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -477,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,13 +494,9 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -555,7 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,11 +805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y969"/>
+  <dimension ref="A1:Y966"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1678,94 +1650,69 @@
       <c r="C42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="35" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G42" s="36"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23" t="s">
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+      <c r="A44" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="23">
+        <f>SUM(G2:G66)</f>
+        <v>120</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="24">
-        <v>42548</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="25">
-        <v>4</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="40"/>
-    </row>
-    <row r="46" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="27">
-        <f ca="1">TODAY()</f>
-        <v>42585</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="40"/>
-    </row>
-    <row r="47" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="25">
-        <f>SUM(G2:G69)</f>
-        <v>120</v>
-      </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="40"/>
-    </row>
-    <row r="48" spans="1:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="D48" s="37"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
-    </row>
-    <row r="49" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:25" ht="13" x14ac:dyDescent="0.15">
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+    </row>
+    <row r="54" spans="4:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="D54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="4:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="D55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="4:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="D56" s="9"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="4:7" ht="13" x14ac:dyDescent="0.15">
       <c r="D57" s="9"/>
@@ -1848,3576 +1795,3564 @@
       <c r="G76" s="10"/>
     </row>
     <row r="77" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D77" s="9"/>
-      <c r="G77" s="10"/>
+      <c r="D77" s="25"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D78" s="9"/>
-      <c r="G78" s="10"/>
+      <c r="D78" s="27"/>
+      <c r="G78" s="28"/>
     </row>
     <row r="79" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D79" s="9"/>
-      <c r="G79" s="10"/>
+      <c r="D79" s="27"/>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D80" s="29"/>
-      <c r="G80" s="30"/>
+      <c r="D80" s="27"/>
+      <c r="G80" s="28"/>
     </row>
     <row r="81" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D81" s="31"/>
-      <c r="G81" s="32"/>
+      <c r="D81" s="27"/>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D82" s="31"/>
-      <c r="G82" s="32"/>
+      <c r="D82" s="27"/>
+      <c r="G82" s="28"/>
     </row>
     <row r="83" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D83" s="31"/>
-      <c r="G83" s="32"/>
+      <c r="D83" s="27"/>
+      <c r="G83" s="28"/>
     </row>
     <row r="84" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D84" s="31"/>
-      <c r="G84" s="32"/>
+      <c r="D84" s="27"/>
+      <c r="G84" s="28"/>
     </row>
     <row r="85" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D85" s="31"/>
-      <c r="G85" s="32"/>
+      <c r="D85" s="27"/>
+      <c r="G85" s="28"/>
     </row>
     <row r="86" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D86" s="31"/>
-      <c r="G86" s="32"/>
+      <c r="D86" s="27"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D87" s="31"/>
-      <c r="G87" s="32"/>
+      <c r="D87" s="27"/>
+      <c r="G87" s="28"/>
     </row>
     <row r="88" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D88" s="31"/>
-      <c r="G88" s="32"/>
+      <c r="D88" s="27"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D89" s="31"/>
-      <c r="G89" s="32"/>
+      <c r="D89" s="27"/>
+      <c r="G89" s="28"/>
     </row>
     <row r="90" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D90" s="31"/>
-      <c r="G90" s="32"/>
+      <c r="D90" s="27"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D91" s="31"/>
-      <c r="G91" s="32"/>
+      <c r="D91" s="27"/>
+      <c r="G91" s="28"/>
     </row>
     <row r="92" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D92" s="31"/>
-      <c r="G92" s="32"/>
+      <c r="D92" s="27"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D93" s="31"/>
-      <c r="G93" s="32"/>
+      <c r="D93" s="27"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D94" s="31"/>
-      <c r="G94" s="32"/>
+      <c r="D94" s="27"/>
+      <c r="G94" s="28"/>
     </row>
     <row r="95" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D95" s="31"/>
-      <c r="G95" s="32"/>
+      <c r="D95" s="27"/>
+      <c r="G95" s="28"/>
     </row>
     <row r="96" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D96" s="31"/>
-      <c r="G96" s="32"/>
+      <c r="D96" s="27"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D97" s="31"/>
-      <c r="G97" s="32"/>
+      <c r="D97" s="27"/>
+      <c r="G97" s="28"/>
     </row>
     <row r="98" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D98" s="31"/>
-      <c r="G98" s="32"/>
+      <c r="D98" s="27"/>
+      <c r="G98" s="28"/>
     </row>
     <row r="99" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D99" s="31"/>
-      <c r="G99" s="32"/>
+      <c r="D99" s="27"/>
+      <c r="G99" s="28"/>
     </row>
     <row r="100" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D100" s="31"/>
-      <c r="G100" s="32"/>
+      <c r="D100" s="27"/>
+      <c r="G100" s="28"/>
     </row>
     <row r="101" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D101" s="31"/>
-      <c r="G101" s="32"/>
+      <c r="D101" s="27"/>
+      <c r="G101" s="28"/>
     </row>
     <row r="102" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D102" s="31"/>
-      <c r="G102" s="32"/>
+      <c r="D102" s="27"/>
+      <c r="G102" s="28"/>
     </row>
     <row r="103" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D103" s="31"/>
-      <c r="G103" s="32"/>
+      <c r="D103" s="27"/>
+      <c r="G103" s="28"/>
     </row>
     <row r="104" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D104" s="31"/>
-      <c r="G104" s="32"/>
+      <c r="D104" s="27"/>
+      <c r="G104" s="28"/>
     </row>
     <row r="105" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D105" s="31"/>
-      <c r="G105" s="32"/>
+      <c r="D105" s="27"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D106" s="31"/>
-      <c r="G106" s="32"/>
+      <c r="D106" s="27"/>
+      <c r="G106" s="28"/>
     </row>
     <row r="107" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D107" s="31"/>
-      <c r="G107" s="32"/>
+      <c r="D107" s="27"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D108" s="31"/>
-      <c r="G108" s="32"/>
+      <c r="D108" s="27"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D109" s="31"/>
-      <c r="G109" s="32"/>
+      <c r="D109" s="27"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D110" s="31"/>
-      <c r="G110" s="32"/>
+      <c r="D110" s="27"/>
+      <c r="G110" s="28"/>
     </row>
     <row r="111" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D111" s="31"/>
-      <c r="G111" s="32"/>
+      <c r="D111" s="27"/>
+      <c r="G111" s="28"/>
     </row>
     <row r="112" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D112" s="31"/>
-      <c r="G112" s="32"/>
+      <c r="D112" s="27"/>
+      <c r="G112" s="28"/>
     </row>
     <row r="113" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D113" s="31"/>
-      <c r="G113" s="32"/>
+      <c r="D113" s="27"/>
+      <c r="G113" s="28"/>
     </row>
     <row r="114" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D114" s="31"/>
-      <c r="G114" s="32"/>
+      <c r="D114" s="27"/>
+      <c r="G114" s="28"/>
     </row>
     <row r="115" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D115" s="31"/>
-      <c r="G115" s="32"/>
+      <c r="D115" s="27"/>
+      <c r="G115" s="28"/>
     </row>
     <row r="116" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D116" s="31"/>
-      <c r="G116" s="32"/>
+      <c r="D116" s="27"/>
+      <c r="G116" s="28"/>
     </row>
     <row r="117" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D117" s="31"/>
-      <c r="G117" s="32"/>
+      <c r="D117" s="27"/>
+      <c r="G117" s="28"/>
     </row>
     <row r="118" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D118" s="31"/>
-      <c r="G118" s="32"/>
+      <c r="D118" s="27"/>
+      <c r="G118" s="28"/>
     </row>
     <row r="119" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D119" s="31"/>
-      <c r="G119" s="32"/>
+      <c r="D119" s="27"/>
+      <c r="G119" s="28"/>
     </row>
     <row r="120" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D120" s="31"/>
-      <c r="G120" s="32"/>
+      <c r="D120" s="27"/>
+      <c r="G120" s="28"/>
     </row>
     <row r="121" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D121" s="31"/>
-      <c r="G121" s="32"/>
+      <c r="D121" s="27"/>
+      <c r="G121" s="28"/>
     </row>
     <row r="122" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D122" s="31"/>
-      <c r="G122" s="32"/>
+      <c r="D122" s="27"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D123" s="31"/>
-      <c r="G123" s="32"/>
+      <c r="D123" s="27"/>
+      <c r="G123" s="28"/>
     </row>
     <row r="124" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D124" s="31"/>
-      <c r="G124" s="32"/>
+      <c r="D124" s="27"/>
+      <c r="G124" s="28"/>
     </row>
     <row r="125" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D125" s="31"/>
-      <c r="G125" s="32"/>
+      <c r="D125" s="27"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D126" s="31"/>
-      <c r="G126" s="32"/>
+      <c r="D126" s="27"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D127" s="31"/>
-      <c r="G127" s="32"/>
+      <c r="D127" s="27"/>
+      <c r="G127" s="28"/>
     </row>
     <row r="128" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D128" s="31"/>
-      <c r="G128" s="32"/>
+      <c r="D128" s="27"/>
+      <c r="G128" s="28"/>
     </row>
     <row r="129" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D129" s="31"/>
-      <c r="G129" s="32"/>
+      <c r="D129" s="27"/>
+      <c r="G129" s="28"/>
     </row>
     <row r="130" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D130" s="31"/>
-      <c r="G130" s="32"/>
+      <c r="D130" s="27"/>
+      <c r="G130" s="28"/>
     </row>
     <row r="131" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D131" s="31"/>
-      <c r="G131" s="32"/>
+      <c r="D131" s="27"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D132" s="31"/>
-      <c r="G132" s="32"/>
+      <c r="D132" s="27"/>
+      <c r="G132" s="28"/>
     </row>
     <row r="133" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D133" s="31"/>
-      <c r="G133" s="32"/>
+      <c r="D133" s="27"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D134" s="31"/>
-      <c r="G134" s="32"/>
+      <c r="D134" s="27"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D135" s="31"/>
-      <c r="G135" s="32"/>
+      <c r="D135" s="27"/>
+      <c r="G135" s="28"/>
     </row>
     <row r="136" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D136" s="31"/>
-      <c r="G136" s="32"/>
+      <c r="D136" s="27"/>
+      <c r="G136" s="28"/>
     </row>
     <row r="137" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D137" s="31"/>
-      <c r="G137" s="32"/>
+      <c r="D137" s="27"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D138" s="31"/>
-      <c r="G138" s="32"/>
+      <c r="D138" s="27"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D139" s="31"/>
-      <c r="G139" s="32"/>
+      <c r="D139" s="27"/>
+      <c r="G139" s="28"/>
     </row>
     <row r="140" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D140" s="31"/>
-      <c r="G140" s="32"/>
+      <c r="D140" s="27"/>
+      <c r="G140" s="28"/>
     </row>
     <row r="141" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D141" s="31"/>
-      <c r="G141" s="32"/>
+      <c r="D141" s="27"/>
+      <c r="G141" s="28"/>
     </row>
     <row r="142" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D142" s="31"/>
-      <c r="G142" s="32"/>
+      <c r="D142" s="27"/>
+      <c r="G142" s="28"/>
     </row>
     <row r="143" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D143" s="31"/>
-      <c r="G143" s="32"/>
+      <c r="D143" s="27"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D144" s="31"/>
-      <c r="G144" s="32"/>
+      <c r="D144" s="27"/>
+      <c r="G144" s="28"/>
     </row>
     <row r="145" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D145" s="31"/>
-      <c r="G145" s="32"/>
+      <c r="D145" s="27"/>
+      <c r="G145" s="28"/>
     </row>
     <row r="146" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D146" s="31"/>
-      <c r="G146" s="32"/>
+      <c r="D146" s="27"/>
+      <c r="G146" s="28"/>
     </row>
     <row r="147" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D147" s="31"/>
-      <c r="G147" s="32"/>
+      <c r="D147" s="27"/>
+      <c r="G147" s="28"/>
     </row>
     <row r="148" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D148" s="31"/>
-      <c r="G148" s="32"/>
+      <c r="D148" s="27"/>
+      <c r="G148" s="28"/>
     </row>
     <row r="149" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D149" s="31"/>
-      <c r="G149" s="32"/>
+      <c r="D149" s="27"/>
+      <c r="G149" s="28"/>
     </row>
     <row r="150" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D150" s="31"/>
-      <c r="G150" s="32"/>
+      <c r="D150" s="27"/>
+      <c r="G150" s="28"/>
     </row>
     <row r="151" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D151" s="31"/>
-      <c r="G151" s="32"/>
+      <c r="D151" s="27"/>
+      <c r="G151" s="28"/>
     </row>
     <row r="152" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D152" s="31"/>
-      <c r="G152" s="32"/>
+      <c r="D152" s="27"/>
+      <c r="G152" s="28"/>
     </row>
     <row r="153" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D153" s="31"/>
-      <c r="G153" s="32"/>
+      <c r="D153" s="27"/>
+      <c r="G153" s="28"/>
     </row>
     <row r="154" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D154" s="31"/>
-      <c r="G154" s="32"/>
+      <c r="D154" s="27"/>
+      <c r="G154" s="28"/>
     </row>
     <row r="155" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D155" s="31"/>
-      <c r="G155" s="32"/>
+      <c r="D155" s="27"/>
+      <c r="G155" s="28"/>
     </row>
     <row r="156" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D156" s="31"/>
-      <c r="G156" s="32"/>
+      <c r="D156" s="27"/>
+      <c r="G156" s="28"/>
     </row>
     <row r="157" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D157" s="31"/>
-      <c r="G157" s="32"/>
+      <c r="D157" s="27"/>
+      <c r="G157" s="28"/>
     </row>
     <row r="158" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D158" s="31"/>
-      <c r="G158" s="32"/>
+      <c r="D158" s="27"/>
+      <c r="G158" s="28"/>
     </row>
     <row r="159" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D159" s="31"/>
-      <c r="G159" s="32"/>
+      <c r="D159" s="27"/>
+      <c r="G159" s="28"/>
     </row>
     <row r="160" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D160" s="31"/>
-      <c r="G160" s="32"/>
+      <c r="D160" s="27"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D161" s="31"/>
-      <c r="G161" s="32"/>
+      <c r="D161" s="27"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D162" s="31"/>
-      <c r="G162" s="32"/>
+      <c r="D162" s="27"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D163" s="31"/>
-      <c r="G163" s="32"/>
+      <c r="D163" s="27"/>
+      <c r="G163" s="28"/>
     </row>
     <row r="164" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D164" s="31"/>
-      <c r="G164" s="32"/>
+      <c r="D164" s="27"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D165" s="31"/>
-      <c r="G165" s="32"/>
+      <c r="D165" s="27"/>
+      <c r="G165" s="28"/>
     </row>
     <row r="166" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D166" s="31"/>
-      <c r="G166" s="32"/>
+      <c r="D166" s="27"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D167" s="31"/>
-      <c r="G167" s="32"/>
+      <c r="D167" s="27"/>
+      <c r="G167" s="28"/>
     </row>
     <row r="168" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D168" s="31"/>
-      <c r="G168" s="32"/>
+      <c r="D168" s="27"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D169" s="31"/>
-      <c r="G169" s="32"/>
+      <c r="D169" s="27"/>
+      <c r="G169" s="28"/>
     </row>
     <row r="170" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D170" s="31"/>
-      <c r="G170" s="32"/>
+      <c r="D170" s="27"/>
+      <c r="G170" s="28"/>
     </row>
     <row r="171" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D171" s="31"/>
-      <c r="G171" s="32"/>
+      <c r="D171" s="27"/>
+      <c r="G171" s="28"/>
     </row>
     <row r="172" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D172" s="31"/>
-      <c r="G172" s="32"/>
+      <c r="D172" s="27"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D173" s="31"/>
-      <c r="G173" s="32"/>
+      <c r="D173" s="27"/>
+      <c r="G173" s="28"/>
     </row>
     <row r="174" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D174" s="31"/>
-      <c r="G174" s="32"/>
+      <c r="D174" s="27"/>
+      <c r="G174" s="28"/>
     </row>
     <row r="175" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D175" s="31"/>
-      <c r="G175" s="32"/>
+      <c r="D175" s="27"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D176" s="31"/>
-      <c r="G176" s="32"/>
+      <c r="D176" s="27"/>
+      <c r="G176" s="28"/>
     </row>
     <row r="177" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D177" s="31"/>
-      <c r="G177" s="32"/>
+      <c r="D177" s="27"/>
+      <c r="G177" s="28"/>
     </row>
     <row r="178" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D178" s="31"/>
-      <c r="G178" s="32"/>
+      <c r="D178" s="27"/>
+      <c r="G178" s="28"/>
     </row>
     <row r="179" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D179" s="31"/>
-      <c r="G179" s="32"/>
+      <c r="D179" s="27"/>
+      <c r="G179" s="28"/>
     </row>
     <row r="180" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D180" s="31"/>
-      <c r="G180" s="32"/>
+      <c r="D180" s="27"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D181" s="31"/>
-      <c r="G181" s="32"/>
+      <c r="D181" s="27"/>
+      <c r="G181" s="28"/>
     </row>
     <row r="182" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D182" s="31"/>
-      <c r="G182" s="32"/>
+      <c r="D182" s="27"/>
+      <c r="G182" s="28"/>
     </row>
     <row r="183" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D183" s="31"/>
-      <c r="G183" s="32"/>
+      <c r="D183" s="27"/>
+      <c r="G183" s="28"/>
     </row>
     <row r="184" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D184" s="31"/>
-      <c r="G184" s="32"/>
+      <c r="D184" s="27"/>
+      <c r="G184" s="28"/>
     </row>
     <row r="185" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D185" s="31"/>
-      <c r="G185" s="32"/>
+      <c r="D185" s="27"/>
+      <c r="G185" s="28"/>
     </row>
     <row r="186" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D186" s="31"/>
-      <c r="G186" s="32"/>
+      <c r="D186" s="27"/>
+      <c r="G186" s="28"/>
     </row>
     <row r="187" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D187" s="31"/>
-      <c r="G187" s="32"/>
+      <c r="D187" s="27"/>
+      <c r="G187" s="28"/>
     </row>
     <row r="188" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D188" s="31"/>
-      <c r="G188" s="32"/>
+      <c r="D188" s="27"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D189" s="31"/>
-      <c r="G189" s="32"/>
+      <c r="D189" s="27"/>
+      <c r="G189" s="28"/>
     </row>
     <row r="190" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D190" s="31"/>
-      <c r="G190" s="32"/>
+      <c r="D190" s="27"/>
+      <c r="G190" s="28"/>
     </row>
     <row r="191" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D191" s="31"/>
-      <c r="G191" s="32"/>
+      <c r="D191" s="27"/>
+      <c r="G191" s="28"/>
     </row>
     <row r="192" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D192" s="31"/>
-      <c r="G192" s="32"/>
+      <c r="D192" s="27"/>
+      <c r="G192" s="28"/>
     </row>
     <row r="193" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D193" s="31"/>
-      <c r="G193" s="32"/>
+      <c r="D193" s="27"/>
+      <c r="G193" s="28"/>
     </row>
     <row r="194" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D194" s="31"/>
-      <c r="G194" s="32"/>
+      <c r="D194" s="27"/>
+      <c r="G194" s="28"/>
     </row>
     <row r="195" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D195" s="31"/>
-      <c r="G195" s="32"/>
+      <c r="D195" s="27"/>
+      <c r="G195" s="28"/>
     </row>
     <row r="196" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D196" s="31"/>
-      <c r="G196" s="32"/>
+      <c r="D196" s="27"/>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D197" s="31"/>
-      <c r="G197" s="32"/>
+      <c r="D197" s="27"/>
+      <c r="G197" s="28"/>
     </row>
     <row r="198" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D198" s="31"/>
-      <c r="G198" s="32"/>
+      <c r="D198" s="27"/>
+      <c r="G198" s="28"/>
     </row>
     <row r="199" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D199" s="31"/>
-      <c r="G199" s="32"/>
+      <c r="D199" s="27"/>
+      <c r="G199" s="28"/>
     </row>
     <row r="200" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D200" s="31"/>
-      <c r="G200" s="32"/>
+      <c r="D200" s="27"/>
+      <c r="G200" s="28"/>
     </row>
     <row r="201" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D201" s="31"/>
-      <c r="G201" s="32"/>
+      <c r="D201" s="27"/>
+      <c r="G201" s="28"/>
     </row>
     <row r="202" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D202" s="31"/>
-      <c r="G202" s="32"/>
+      <c r="D202" s="27"/>
+      <c r="G202" s="28"/>
     </row>
     <row r="203" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D203" s="31"/>
-      <c r="G203" s="32"/>
+      <c r="D203" s="27"/>
+      <c r="G203" s="28"/>
     </row>
     <row r="204" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D204" s="31"/>
-      <c r="G204" s="32"/>
+      <c r="D204" s="27"/>
+      <c r="G204" s="28"/>
     </row>
     <row r="205" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D205" s="31"/>
-      <c r="G205" s="32"/>
+      <c r="D205" s="27"/>
+      <c r="G205" s="28"/>
     </row>
     <row r="206" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D206" s="31"/>
-      <c r="G206" s="32"/>
+      <c r="D206" s="27"/>
+      <c r="G206" s="28"/>
     </row>
     <row r="207" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D207" s="31"/>
-      <c r="G207" s="32"/>
+      <c r="D207" s="27"/>
+      <c r="G207" s="28"/>
     </row>
     <row r="208" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D208" s="31"/>
-      <c r="G208" s="32"/>
+      <c r="D208" s="27"/>
+      <c r="G208" s="28"/>
     </row>
     <row r="209" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D209" s="31"/>
-      <c r="G209" s="32"/>
+      <c r="D209" s="27"/>
+      <c r="G209" s="28"/>
     </row>
     <row r="210" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D210" s="31"/>
-      <c r="G210" s="32"/>
+      <c r="D210" s="27"/>
+      <c r="G210" s="28"/>
     </row>
     <row r="211" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D211" s="31"/>
-      <c r="G211" s="32"/>
+      <c r="D211" s="27"/>
+      <c r="G211" s="28"/>
     </row>
     <row r="212" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D212" s="31"/>
-      <c r="G212" s="32"/>
+      <c r="D212" s="27"/>
+      <c r="G212" s="28"/>
     </row>
     <row r="213" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D213" s="31"/>
-      <c r="G213" s="32"/>
+      <c r="D213" s="27"/>
+      <c r="G213" s="28"/>
     </row>
     <row r="214" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D214" s="31"/>
-      <c r="G214" s="32"/>
+      <c r="D214" s="27"/>
+      <c r="G214" s="28"/>
     </row>
     <row r="215" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D215" s="31"/>
-      <c r="G215" s="32"/>
+      <c r="D215" s="27"/>
+      <c r="G215" s="28"/>
     </row>
     <row r="216" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D216" s="31"/>
-      <c r="G216" s="32"/>
+      <c r="D216" s="27"/>
+      <c r="G216" s="28"/>
     </row>
     <row r="217" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D217" s="31"/>
-      <c r="G217" s="32"/>
+      <c r="D217" s="27"/>
+      <c r="G217" s="28"/>
     </row>
     <row r="218" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D218" s="31"/>
-      <c r="G218" s="32"/>
+      <c r="D218" s="27"/>
+      <c r="G218" s="28"/>
     </row>
     <row r="219" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D219" s="31"/>
-      <c r="G219" s="32"/>
+      <c r="D219" s="27"/>
+      <c r="G219" s="28"/>
     </row>
     <row r="220" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D220" s="31"/>
-      <c r="G220" s="32"/>
+      <c r="D220" s="27"/>
+      <c r="G220" s="28"/>
     </row>
     <row r="221" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D221" s="31"/>
-      <c r="G221" s="32"/>
+      <c r="D221" s="27"/>
+      <c r="G221" s="28"/>
     </row>
     <row r="222" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D222" s="31"/>
-      <c r="G222" s="32"/>
+      <c r="D222" s="27"/>
+      <c r="G222" s="28"/>
     </row>
     <row r="223" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D223" s="31"/>
-      <c r="G223" s="32"/>
+      <c r="D223" s="27"/>
+      <c r="G223" s="28"/>
     </row>
     <row r="224" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D224" s="31"/>
-      <c r="G224" s="32"/>
+      <c r="D224" s="27"/>
+      <c r="G224" s="28"/>
     </row>
     <row r="225" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D225" s="31"/>
-      <c r="G225" s="32"/>
+      <c r="D225" s="27"/>
+      <c r="G225" s="28"/>
     </row>
     <row r="226" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D226" s="31"/>
-      <c r="G226" s="32"/>
+      <c r="D226" s="27"/>
+      <c r="G226" s="28"/>
     </row>
     <row r="227" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D227" s="31"/>
-      <c r="G227" s="32"/>
+      <c r="D227" s="27"/>
+      <c r="G227" s="28"/>
     </row>
     <row r="228" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D228" s="31"/>
-      <c r="G228" s="32"/>
+      <c r="D228" s="27"/>
+      <c r="G228" s="28"/>
     </row>
     <row r="229" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D229" s="31"/>
-      <c r="G229" s="32"/>
+      <c r="D229" s="27"/>
+      <c r="G229" s="28"/>
     </row>
     <row r="230" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D230" s="31"/>
-      <c r="G230" s="32"/>
+      <c r="D230" s="27"/>
+      <c r="G230" s="28"/>
     </row>
     <row r="231" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D231" s="31"/>
-      <c r="G231" s="32"/>
+      <c r="D231" s="27"/>
+      <c r="G231" s="28"/>
     </row>
     <row r="232" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D232" s="31"/>
-      <c r="G232" s="32"/>
+      <c r="D232" s="27"/>
+      <c r="G232" s="28"/>
     </row>
     <row r="233" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D233" s="31"/>
-      <c r="G233" s="32"/>
+      <c r="D233" s="27"/>
+      <c r="G233" s="28"/>
     </row>
     <row r="234" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D234" s="31"/>
-      <c r="G234" s="32"/>
+      <c r="D234" s="27"/>
+      <c r="G234" s="28"/>
     </row>
     <row r="235" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D235" s="31"/>
-      <c r="G235" s="32"/>
+      <c r="D235" s="27"/>
+      <c r="G235" s="28"/>
     </row>
     <row r="236" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D236" s="31"/>
-      <c r="G236" s="32"/>
+      <c r="D236" s="27"/>
+      <c r="G236" s="28"/>
     </row>
     <row r="237" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D237" s="31"/>
-      <c r="G237" s="32"/>
+      <c r="D237" s="27"/>
+      <c r="G237" s="28"/>
     </row>
     <row r="238" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D238" s="31"/>
-      <c r="G238" s="32"/>
+      <c r="D238" s="27"/>
+      <c r="G238" s="28"/>
     </row>
     <row r="239" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D239" s="31"/>
-      <c r="G239" s="32"/>
+      <c r="D239" s="27"/>
+      <c r="G239" s="28"/>
     </row>
     <row r="240" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D240" s="31"/>
-      <c r="G240" s="32"/>
+      <c r="D240" s="27"/>
+      <c r="G240" s="28"/>
     </row>
     <row r="241" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D241" s="31"/>
-      <c r="G241" s="32"/>
+      <c r="D241" s="27"/>
+      <c r="G241" s="28"/>
     </row>
     <row r="242" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D242" s="31"/>
-      <c r="G242" s="32"/>
+      <c r="D242" s="27"/>
+      <c r="G242" s="28"/>
     </row>
     <row r="243" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D243" s="31"/>
-      <c r="G243" s="32"/>
+      <c r="D243" s="27"/>
+      <c r="G243" s="28"/>
     </row>
     <row r="244" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D244" s="31"/>
-      <c r="G244" s="32"/>
+      <c r="D244" s="27"/>
+      <c r="G244" s="28"/>
     </row>
     <row r="245" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D245" s="31"/>
-      <c r="G245" s="32"/>
+      <c r="D245" s="27"/>
+      <c r="G245" s="28"/>
     </row>
     <row r="246" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D246" s="31"/>
-      <c r="G246" s="32"/>
+      <c r="D246" s="27"/>
+      <c r="G246" s="28"/>
     </row>
     <row r="247" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D247" s="31"/>
-      <c r="G247" s="32"/>
+      <c r="D247" s="27"/>
+      <c r="G247" s="28"/>
     </row>
     <row r="248" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D248" s="31"/>
-      <c r="G248" s="32"/>
+      <c r="D248" s="27"/>
+      <c r="G248" s="28"/>
     </row>
     <row r="249" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D249" s="31"/>
-      <c r="G249" s="32"/>
+      <c r="D249" s="27"/>
+      <c r="G249" s="28"/>
     </row>
     <row r="250" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D250" s="31"/>
-      <c r="G250" s="32"/>
+      <c r="D250" s="27"/>
+      <c r="G250" s="28"/>
     </row>
     <row r="251" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D251" s="31"/>
-      <c r="G251" s="32"/>
+      <c r="D251" s="27"/>
+      <c r="G251" s="28"/>
     </row>
     <row r="252" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D252" s="31"/>
-      <c r="G252" s="32"/>
+      <c r="D252" s="27"/>
+      <c r="G252" s="28"/>
     </row>
     <row r="253" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D253" s="31"/>
-      <c r="G253" s="32"/>
+      <c r="D253" s="27"/>
+      <c r="G253" s="28"/>
     </row>
     <row r="254" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D254" s="31"/>
-      <c r="G254" s="32"/>
+      <c r="D254" s="27"/>
+      <c r="G254" s="28"/>
     </row>
     <row r="255" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D255" s="31"/>
-      <c r="G255" s="32"/>
+      <c r="D255" s="27"/>
+      <c r="G255" s="28"/>
     </row>
     <row r="256" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D256" s="31"/>
-      <c r="G256" s="32"/>
+      <c r="D256" s="27"/>
+      <c r="G256" s="28"/>
     </row>
     <row r="257" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D257" s="31"/>
-      <c r="G257" s="32"/>
+      <c r="D257" s="27"/>
+      <c r="G257" s="28"/>
     </row>
     <row r="258" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D258" s="31"/>
-      <c r="G258" s="32"/>
+      <c r="D258" s="27"/>
+      <c r="G258" s="28"/>
     </row>
     <row r="259" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D259" s="31"/>
-      <c r="G259" s="32"/>
+      <c r="D259" s="27"/>
+      <c r="G259" s="28"/>
     </row>
     <row r="260" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D260" s="31"/>
-      <c r="G260" s="32"/>
+      <c r="D260" s="27"/>
+      <c r="G260" s="28"/>
     </row>
     <row r="261" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D261" s="31"/>
-      <c r="G261" s="32"/>
+      <c r="D261" s="27"/>
+      <c r="G261" s="28"/>
     </row>
     <row r="262" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D262" s="31"/>
-      <c r="G262" s="32"/>
+      <c r="D262" s="27"/>
+      <c r="G262" s="28"/>
     </row>
     <row r="263" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D263" s="31"/>
-      <c r="G263" s="32"/>
+      <c r="D263" s="27"/>
+      <c r="G263" s="28"/>
     </row>
     <row r="264" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D264" s="31"/>
-      <c r="G264" s="32"/>
+      <c r="D264" s="27"/>
+      <c r="G264" s="28"/>
     </row>
     <row r="265" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D265" s="31"/>
-      <c r="G265" s="32"/>
+      <c r="D265" s="27"/>
+      <c r="G265" s="28"/>
     </row>
     <row r="266" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D266" s="31"/>
-      <c r="G266" s="32"/>
+      <c r="D266" s="27"/>
+      <c r="G266" s="28"/>
     </row>
     <row r="267" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D267" s="31"/>
-      <c r="G267" s="32"/>
+      <c r="D267" s="27"/>
+      <c r="G267" s="28"/>
     </row>
     <row r="268" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D268" s="31"/>
-      <c r="G268" s="32"/>
+      <c r="D268" s="27"/>
+      <c r="G268" s="28"/>
     </row>
     <row r="269" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D269" s="31"/>
-      <c r="G269" s="32"/>
+      <c r="D269" s="27"/>
+      <c r="G269" s="28"/>
     </row>
     <row r="270" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D270" s="31"/>
-      <c r="G270" s="32"/>
+      <c r="D270" s="27"/>
+      <c r="G270" s="28"/>
     </row>
     <row r="271" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D271" s="31"/>
-      <c r="G271" s="32"/>
+      <c r="D271" s="27"/>
+      <c r="G271" s="28"/>
     </row>
     <row r="272" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D272" s="31"/>
-      <c r="G272" s="32"/>
+      <c r="D272" s="27"/>
+      <c r="G272" s="28"/>
     </row>
     <row r="273" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D273" s="31"/>
-      <c r="G273" s="32"/>
+      <c r="D273" s="27"/>
+      <c r="G273" s="28"/>
     </row>
     <row r="274" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D274" s="31"/>
-      <c r="G274" s="32"/>
+      <c r="D274" s="27"/>
+      <c r="G274" s="28"/>
     </row>
     <row r="275" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D275" s="31"/>
-      <c r="G275" s="32"/>
+      <c r="D275" s="27"/>
+      <c r="G275" s="28"/>
     </row>
     <row r="276" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D276" s="31"/>
-      <c r="G276" s="32"/>
+      <c r="D276" s="27"/>
+      <c r="G276" s="28"/>
     </row>
     <row r="277" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D277" s="31"/>
-      <c r="G277" s="32"/>
+      <c r="D277" s="27"/>
+      <c r="G277" s="28"/>
     </row>
     <row r="278" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D278" s="31"/>
-      <c r="G278" s="32"/>
+      <c r="D278" s="27"/>
+      <c r="G278" s="28"/>
     </row>
     <row r="279" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D279" s="31"/>
-      <c r="G279" s="32"/>
+      <c r="D279" s="27"/>
+      <c r="G279" s="28"/>
     </row>
     <row r="280" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D280" s="31"/>
-      <c r="G280" s="32"/>
+      <c r="D280" s="27"/>
+      <c r="G280" s="28"/>
     </row>
     <row r="281" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D281" s="31"/>
-      <c r="G281" s="32"/>
+      <c r="D281" s="27"/>
+      <c r="G281" s="28"/>
     </row>
     <row r="282" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D282" s="31"/>
-      <c r="G282" s="32"/>
+      <c r="D282" s="27"/>
+      <c r="G282" s="28"/>
     </row>
     <row r="283" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D283" s="31"/>
-      <c r="G283" s="32"/>
+      <c r="D283" s="27"/>
+      <c r="G283" s="28"/>
     </row>
     <row r="284" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D284" s="31"/>
-      <c r="G284" s="32"/>
+      <c r="D284" s="27"/>
+      <c r="G284" s="28"/>
     </row>
     <row r="285" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D285" s="31"/>
-      <c r="G285" s="32"/>
+      <c r="D285" s="27"/>
+      <c r="G285" s="28"/>
     </row>
     <row r="286" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D286" s="31"/>
-      <c r="G286" s="32"/>
+      <c r="D286" s="27"/>
+      <c r="G286" s="28"/>
     </row>
     <row r="287" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D287" s="31"/>
-      <c r="G287" s="32"/>
+      <c r="D287" s="27"/>
+      <c r="G287" s="28"/>
     </row>
     <row r="288" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D288" s="31"/>
-      <c r="G288" s="32"/>
+      <c r="D288" s="27"/>
+      <c r="G288" s="28"/>
     </row>
     <row r="289" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D289" s="31"/>
-      <c r="G289" s="32"/>
+      <c r="D289" s="27"/>
+      <c r="G289" s="28"/>
     </row>
     <row r="290" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D290" s="31"/>
-      <c r="G290" s="32"/>
+      <c r="D290" s="27"/>
+      <c r="G290" s="28"/>
     </row>
     <row r="291" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D291" s="31"/>
-      <c r="G291" s="32"/>
+      <c r="D291" s="27"/>
+      <c r="G291" s="28"/>
     </row>
     <row r="292" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D292" s="31"/>
-      <c r="G292" s="32"/>
+      <c r="D292" s="27"/>
+      <c r="G292" s="28"/>
     </row>
     <row r="293" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D293" s="31"/>
-      <c r="G293" s="32"/>
+      <c r="D293" s="27"/>
+      <c r="G293" s="28"/>
     </row>
     <row r="294" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D294" s="31"/>
-      <c r="G294" s="32"/>
+      <c r="D294" s="27"/>
+      <c r="G294" s="28"/>
     </row>
     <row r="295" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D295" s="31"/>
-      <c r="G295" s="32"/>
+      <c r="D295" s="27"/>
+      <c r="G295" s="28"/>
     </row>
     <row r="296" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D296" s="31"/>
-      <c r="G296" s="32"/>
+      <c r="D296" s="27"/>
+      <c r="G296" s="28"/>
     </row>
     <row r="297" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D297" s="31"/>
-      <c r="G297" s="32"/>
+      <c r="D297" s="27"/>
+      <c r="G297" s="28"/>
     </row>
     <row r="298" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D298" s="31"/>
-      <c r="G298" s="32"/>
+      <c r="D298" s="27"/>
+      <c r="G298" s="28"/>
     </row>
     <row r="299" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D299" s="31"/>
-      <c r="G299" s="32"/>
+      <c r="D299" s="27"/>
+      <c r="G299" s="28"/>
     </row>
     <row r="300" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D300" s="31"/>
-      <c r="G300" s="32"/>
+      <c r="D300" s="27"/>
+      <c r="G300" s="28"/>
     </row>
     <row r="301" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D301" s="31"/>
-      <c r="G301" s="32"/>
+      <c r="D301" s="27"/>
+      <c r="G301" s="28"/>
     </row>
     <row r="302" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D302" s="31"/>
-      <c r="G302" s="32"/>
+      <c r="D302" s="27"/>
+      <c r="G302" s="28"/>
     </row>
     <row r="303" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D303" s="31"/>
-      <c r="G303" s="32"/>
+      <c r="D303" s="27"/>
+      <c r="G303" s="28"/>
     </row>
     <row r="304" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D304" s="31"/>
-      <c r="G304" s="32"/>
+      <c r="D304" s="27"/>
+      <c r="G304" s="28"/>
     </row>
     <row r="305" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D305" s="31"/>
-      <c r="G305" s="32"/>
+      <c r="D305" s="27"/>
+      <c r="G305" s="28"/>
     </row>
     <row r="306" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D306" s="31"/>
-      <c r="G306" s="32"/>
+      <c r="D306" s="27"/>
+      <c r="G306" s="28"/>
     </row>
     <row r="307" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D307" s="31"/>
-      <c r="G307" s="32"/>
+      <c r="D307" s="27"/>
+      <c r="G307" s="28"/>
     </row>
     <row r="308" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D308" s="31"/>
-      <c r="G308" s="32"/>
+      <c r="D308" s="27"/>
+      <c r="G308" s="28"/>
     </row>
     <row r="309" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D309" s="31"/>
-      <c r="G309" s="32"/>
+      <c r="D309" s="27"/>
+      <c r="G309" s="28"/>
     </row>
     <row r="310" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D310" s="31"/>
-      <c r="G310" s="32"/>
+      <c r="D310" s="27"/>
+      <c r="G310" s="28"/>
     </row>
     <row r="311" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D311" s="31"/>
-      <c r="G311" s="32"/>
+      <c r="D311" s="27"/>
+      <c r="G311" s="28"/>
     </row>
     <row r="312" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D312" s="31"/>
-      <c r="G312" s="32"/>
+      <c r="D312" s="27"/>
+      <c r="G312" s="28"/>
     </row>
     <row r="313" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D313" s="31"/>
-      <c r="G313" s="32"/>
+      <c r="D313" s="27"/>
+      <c r="G313" s="28"/>
     </row>
     <row r="314" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D314" s="31"/>
-      <c r="G314" s="32"/>
+      <c r="D314" s="27"/>
+      <c r="G314" s="28"/>
     </row>
     <row r="315" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D315" s="31"/>
-      <c r="G315" s="32"/>
+      <c r="D315" s="27"/>
+      <c r="G315" s="28"/>
     </row>
     <row r="316" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D316" s="31"/>
-      <c r="G316" s="32"/>
+      <c r="D316" s="27"/>
+      <c r="G316" s="28"/>
     </row>
     <row r="317" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D317" s="31"/>
-      <c r="G317" s="32"/>
+      <c r="D317" s="27"/>
+      <c r="G317" s="28"/>
     </row>
     <row r="318" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D318" s="31"/>
-      <c r="G318" s="32"/>
+      <c r="D318" s="27"/>
+      <c r="G318" s="28"/>
     </row>
     <row r="319" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D319" s="31"/>
-      <c r="G319" s="32"/>
+      <c r="D319" s="27"/>
+      <c r="G319" s="28"/>
     </row>
     <row r="320" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D320" s="31"/>
-      <c r="G320" s="32"/>
+      <c r="D320" s="27"/>
+      <c r="G320" s="28"/>
     </row>
     <row r="321" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D321" s="31"/>
-      <c r="G321" s="32"/>
+      <c r="D321" s="27"/>
+      <c r="G321" s="28"/>
     </row>
     <row r="322" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D322" s="31"/>
-      <c r="G322" s="32"/>
+      <c r="D322" s="27"/>
+      <c r="G322" s="28"/>
     </row>
     <row r="323" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D323" s="31"/>
-      <c r="G323" s="32"/>
+      <c r="D323" s="27"/>
+      <c r="G323" s="28"/>
     </row>
     <row r="324" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D324" s="31"/>
-      <c r="G324" s="32"/>
+      <c r="D324" s="27"/>
+      <c r="G324" s="28"/>
     </row>
     <row r="325" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D325" s="31"/>
-      <c r="G325" s="32"/>
+      <c r="D325" s="27"/>
+      <c r="G325" s="28"/>
     </row>
     <row r="326" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D326" s="31"/>
-      <c r="G326" s="32"/>
+      <c r="D326" s="27"/>
+      <c r="G326" s="28"/>
     </row>
     <row r="327" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D327" s="31"/>
-      <c r="G327" s="32"/>
+      <c r="D327" s="27"/>
+      <c r="G327" s="28"/>
     </row>
     <row r="328" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D328" s="31"/>
-      <c r="G328" s="32"/>
+      <c r="D328" s="27"/>
+      <c r="G328" s="28"/>
     </row>
     <row r="329" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D329" s="31"/>
-      <c r="G329" s="32"/>
+      <c r="D329" s="27"/>
+      <c r="G329" s="28"/>
     </row>
     <row r="330" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D330" s="31"/>
-      <c r="G330" s="32"/>
+      <c r="D330" s="27"/>
+      <c r="G330" s="28"/>
     </row>
     <row r="331" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D331" s="31"/>
-      <c r="G331" s="32"/>
+      <c r="D331" s="27"/>
+      <c r="G331" s="28"/>
     </row>
     <row r="332" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D332" s="31"/>
-      <c r="G332" s="32"/>
+      <c r="D332" s="27"/>
+      <c r="G332" s="28"/>
     </row>
     <row r="333" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D333" s="31"/>
-      <c r="G333" s="32"/>
+      <c r="D333" s="27"/>
+      <c r="G333" s="28"/>
     </row>
     <row r="334" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D334" s="31"/>
-      <c r="G334" s="32"/>
+      <c r="D334" s="27"/>
+      <c r="G334" s="28"/>
     </row>
     <row r="335" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D335" s="31"/>
-      <c r="G335" s="32"/>
+      <c r="D335" s="27"/>
+      <c r="G335" s="28"/>
     </row>
     <row r="336" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D336" s="31"/>
-      <c r="G336" s="32"/>
+      <c r="D336" s="27"/>
+      <c r="G336" s="28"/>
     </row>
     <row r="337" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D337" s="31"/>
-      <c r="G337" s="32"/>
+      <c r="D337" s="27"/>
+      <c r="G337" s="28"/>
     </row>
     <row r="338" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D338" s="31"/>
-      <c r="G338" s="32"/>
+      <c r="D338" s="27"/>
+      <c r="G338" s="28"/>
     </row>
     <row r="339" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D339" s="31"/>
-      <c r="G339" s="32"/>
+      <c r="D339" s="27"/>
+      <c r="G339" s="28"/>
     </row>
     <row r="340" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D340" s="31"/>
-      <c r="G340" s="32"/>
+      <c r="D340" s="27"/>
+      <c r="G340" s="28"/>
     </row>
     <row r="341" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D341" s="31"/>
-      <c r="G341" s="32"/>
+      <c r="D341" s="27"/>
+      <c r="G341" s="28"/>
     </row>
     <row r="342" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D342" s="31"/>
-      <c r="G342" s="32"/>
+      <c r="D342" s="27"/>
+      <c r="G342" s="28"/>
     </row>
     <row r="343" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D343" s="31"/>
-      <c r="G343" s="32"/>
+      <c r="D343" s="27"/>
+      <c r="G343" s="28"/>
     </row>
     <row r="344" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D344" s="31"/>
-      <c r="G344" s="32"/>
+      <c r="D344" s="27"/>
+      <c r="G344" s="28"/>
     </row>
     <row r="345" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D345" s="31"/>
-      <c r="G345" s="32"/>
+      <c r="D345" s="27"/>
+      <c r="G345" s="28"/>
     </row>
     <row r="346" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D346" s="31"/>
-      <c r="G346" s="32"/>
+      <c r="D346" s="27"/>
+      <c r="G346" s="28"/>
     </row>
     <row r="347" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D347" s="31"/>
-      <c r="G347" s="32"/>
+      <c r="D347" s="27"/>
+      <c r="G347" s="28"/>
     </row>
     <row r="348" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D348" s="31"/>
-      <c r="G348" s="32"/>
+      <c r="D348" s="27"/>
+      <c r="G348" s="28"/>
     </row>
     <row r="349" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D349" s="31"/>
-      <c r="G349" s="32"/>
+      <c r="D349" s="27"/>
+      <c r="G349" s="28"/>
     </row>
     <row r="350" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D350" s="31"/>
-      <c r="G350" s="32"/>
+      <c r="D350" s="27"/>
+      <c r="G350" s="28"/>
     </row>
     <row r="351" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D351" s="31"/>
-      <c r="G351" s="32"/>
+      <c r="D351" s="27"/>
+      <c r="G351" s="28"/>
     </row>
     <row r="352" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D352" s="31"/>
-      <c r="G352" s="32"/>
+      <c r="D352" s="27"/>
+      <c r="G352" s="28"/>
     </row>
     <row r="353" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D353" s="31"/>
-      <c r="G353" s="32"/>
+      <c r="D353" s="27"/>
+      <c r="G353" s="28"/>
     </row>
     <row r="354" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D354" s="31"/>
-      <c r="G354" s="32"/>
+      <c r="D354" s="27"/>
+      <c r="G354" s="28"/>
     </row>
     <row r="355" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D355" s="31"/>
-      <c r="G355" s="32"/>
+      <c r="D355" s="27"/>
+      <c r="G355" s="28"/>
     </row>
     <row r="356" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D356" s="31"/>
-      <c r="G356" s="32"/>
+      <c r="D356" s="27"/>
+      <c r="G356" s="28"/>
     </row>
     <row r="357" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D357" s="31"/>
-      <c r="G357" s="32"/>
+      <c r="D357" s="27"/>
+      <c r="G357" s="28"/>
     </row>
     <row r="358" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D358" s="31"/>
-      <c r="G358" s="32"/>
+      <c r="D358" s="27"/>
+      <c r="G358" s="28"/>
     </row>
     <row r="359" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D359" s="31"/>
-      <c r="G359" s="32"/>
+      <c r="D359" s="27"/>
+      <c r="G359" s="28"/>
     </row>
     <row r="360" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D360" s="31"/>
-      <c r="G360" s="32"/>
+      <c r="D360" s="27"/>
+      <c r="G360" s="28"/>
     </row>
     <row r="361" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D361" s="31"/>
-      <c r="G361" s="32"/>
+      <c r="D361" s="27"/>
+      <c r="G361" s="28"/>
     </row>
     <row r="362" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D362" s="31"/>
-      <c r="G362" s="32"/>
+      <c r="D362" s="27"/>
+      <c r="G362" s="28"/>
     </row>
     <row r="363" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D363" s="31"/>
-      <c r="G363" s="32"/>
+      <c r="D363" s="27"/>
+      <c r="G363" s="28"/>
     </row>
     <row r="364" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D364" s="31"/>
-      <c r="G364" s="32"/>
+      <c r="D364" s="27"/>
+      <c r="G364" s="28"/>
     </row>
     <row r="365" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D365" s="31"/>
-      <c r="G365" s="32"/>
+      <c r="D365" s="27"/>
+      <c r="G365" s="28"/>
     </row>
     <row r="366" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D366" s="31"/>
-      <c r="G366" s="32"/>
+      <c r="D366" s="27"/>
+      <c r="G366" s="28"/>
     </row>
     <row r="367" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D367" s="31"/>
-      <c r="G367" s="32"/>
+      <c r="D367" s="27"/>
+      <c r="G367" s="28"/>
     </row>
     <row r="368" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D368" s="31"/>
-      <c r="G368" s="32"/>
+      <c r="D368" s="27"/>
+      <c r="G368" s="28"/>
     </row>
     <row r="369" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D369" s="31"/>
-      <c r="G369" s="32"/>
+      <c r="D369" s="27"/>
+      <c r="G369" s="28"/>
     </row>
     <row r="370" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D370" s="31"/>
-      <c r="G370" s="32"/>
+      <c r="D370" s="27"/>
+      <c r="G370" s="28"/>
     </row>
     <row r="371" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D371" s="31"/>
-      <c r="G371" s="32"/>
+      <c r="D371" s="27"/>
+      <c r="G371" s="28"/>
     </row>
     <row r="372" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D372" s="31"/>
-      <c r="G372" s="32"/>
+      <c r="D372" s="27"/>
+      <c r="G372" s="28"/>
     </row>
     <row r="373" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D373" s="31"/>
-      <c r="G373" s="32"/>
+      <c r="D373" s="27"/>
+      <c r="G373" s="28"/>
     </row>
     <row r="374" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D374" s="31"/>
-      <c r="G374" s="32"/>
+      <c r="D374" s="27"/>
+      <c r="G374" s="28"/>
     </row>
     <row r="375" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D375" s="31"/>
-      <c r="G375" s="32"/>
+      <c r="D375" s="27"/>
+      <c r="G375" s="28"/>
     </row>
     <row r="376" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D376" s="31"/>
-      <c r="G376" s="32"/>
+      <c r="D376" s="27"/>
+      <c r="G376" s="28"/>
     </row>
     <row r="377" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D377" s="31"/>
-      <c r="G377" s="32"/>
+      <c r="D377" s="27"/>
+      <c r="G377" s="28"/>
     </row>
     <row r="378" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D378" s="31"/>
-      <c r="G378" s="32"/>
+      <c r="D378" s="27"/>
+      <c r="G378" s="28"/>
     </row>
     <row r="379" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D379" s="31"/>
-      <c r="G379" s="32"/>
+      <c r="D379" s="27"/>
+      <c r="G379" s="28"/>
     </row>
     <row r="380" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D380" s="31"/>
-      <c r="G380" s="32"/>
+      <c r="D380" s="27"/>
+      <c r="G380" s="28"/>
     </row>
     <row r="381" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D381" s="31"/>
-      <c r="G381" s="32"/>
+      <c r="D381" s="27"/>
+      <c r="G381" s="28"/>
     </row>
     <row r="382" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D382" s="31"/>
-      <c r="G382" s="32"/>
+      <c r="D382" s="27"/>
+      <c r="G382" s="28"/>
     </row>
     <row r="383" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D383" s="31"/>
-      <c r="G383" s="32"/>
+      <c r="D383" s="27"/>
+      <c r="G383" s="28"/>
     </row>
     <row r="384" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D384" s="31"/>
-      <c r="G384" s="32"/>
+      <c r="D384" s="27"/>
+      <c r="G384" s="28"/>
     </row>
     <row r="385" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D385" s="31"/>
-      <c r="G385" s="32"/>
+      <c r="D385" s="27"/>
+      <c r="G385" s="28"/>
     </row>
     <row r="386" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D386" s="31"/>
-      <c r="G386" s="32"/>
+      <c r="D386" s="27"/>
+      <c r="G386" s="28"/>
     </row>
     <row r="387" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D387" s="31"/>
-      <c r="G387" s="32"/>
+      <c r="D387" s="27"/>
+      <c r="G387" s="28"/>
     </row>
     <row r="388" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D388" s="31"/>
-      <c r="G388" s="32"/>
+      <c r="D388" s="27"/>
+      <c r="G388" s="28"/>
     </row>
     <row r="389" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D389" s="31"/>
-      <c r="G389" s="32"/>
+      <c r="D389" s="27"/>
+      <c r="G389" s="28"/>
     </row>
     <row r="390" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D390" s="31"/>
-      <c r="G390" s="32"/>
+      <c r="D390" s="27"/>
+      <c r="G390" s="28"/>
     </row>
     <row r="391" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D391" s="31"/>
-      <c r="G391" s="32"/>
+      <c r="D391" s="27"/>
+      <c r="G391" s="28"/>
     </row>
     <row r="392" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D392" s="31"/>
-      <c r="G392" s="32"/>
+      <c r="D392" s="27"/>
+      <c r="G392" s="28"/>
     </row>
     <row r="393" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D393" s="31"/>
-      <c r="G393" s="32"/>
+      <c r="D393" s="27"/>
+      <c r="G393" s="28"/>
     </row>
     <row r="394" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D394" s="31"/>
-      <c r="G394" s="32"/>
+      <c r="D394" s="27"/>
+      <c r="G394" s="28"/>
     </row>
     <row r="395" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D395" s="31"/>
-      <c r="G395" s="32"/>
+      <c r="D395" s="27"/>
+      <c r="G395" s="28"/>
     </row>
     <row r="396" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D396" s="31"/>
-      <c r="G396" s="32"/>
+      <c r="D396" s="27"/>
+      <c r="G396" s="28"/>
     </row>
     <row r="397" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D397" s="31"/>
-      <c r="G397" s="32"/>
+      <c r="D397" s="27"/>
+      <c r="G397" s="28"/>
     </row>
     <row r="398" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D398" s="31"/>
-      <c r="G398" s="32"/>
+      <c r="D398" s="27"/>
+      <c r="G398" s="28"/>
     </row>
     <row r="399" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D399" s="31"/>
-      <c r="G399" s="32"/>
+      <c r="D399" s="27"/>
+      <c r="G399" s="28"/>
     </row>
     <row r="400" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D400" s="31"/>
-      <c r="G400" s="32"/>
+      <c r="D400" s="27"/>
+      <c r="G400" s="28"/>
     </row>
     <row r="401" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D401" s="31"/>
-      <c r="G401" s="32"/>
+      <c r="D401" s="27"/>
+      <c r="G401" s="28"/>
     </row>
     <row r="402" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D402" s="31"/>
-      <c r="G402" s="32"/>
+      <c r="D402" s="27"/>
+      <c r="G402" s="28"/>
     </row>
     <row r="403" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D403" s="31"/>
-      <c r="G403" s="32"/>
+      <c r="D403" s="27"/>
+      <c r="G403" s="28"/>
     </row>
     <row r="404" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D404" s="31"/>
-      <c r="G404" s="32"/>
+      <c r="D404" s="27"/>
+      <c r="G404" s="28"/>
     </row>
     <row r="405" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D405" s="31"/>
-      <c r="G405" s="32"/>
+      <c r="D405" s="27"/>
+      <c r="G405" s="28"/>
     </row>
     <row r="406" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D406" s="31"/>
-      <c r="G406" s="32"/>
+      <c r="D406" s="27"/>
+      <c r="G406" s="28"/>
     </row>
     <row r="407" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D407" s="31"/>
-      <c r="G407" s="32"/>
+      <c r="D407" s="27"/>
+      <c r="G407" s="28"/>
     </row>
     <row r="408" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D408" s="31"/>
-      <c r="G408" s="32"/>
+      <c r="D408" s="27"/>
+      <c r="G408" s="28"/>
     </row>
     <row r="409" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D409" s="31"/>
-      <c r="G409" s="32"/>
+      <c r="D409" s="27"/>
+      <c r="G409" s="28"/>
     </row>
     <row r="410" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D410" s="31"/>
-      <c r="G410" s="32"/>
+      <c r="D410" s="27"/>
+      <c r="G410" s="28"/>
     </row>
     <row r="411" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D411" s="31"/>
-      <c r="G411" s="32"/>
+      <c r="D411" s="27"/>
+      <c r="G411" s="28"/>
     </row>
     <row r="412" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D412" s="31"/>
-      <c r="G412" s="32"/>
+      <c r="D412" s="27"/>
+      <c r="G412" s="28"/>
     </row>
     <row r="413" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D413" s="31"/>
-      <c r="G413" s="32"/>
+      <c r="D413" s="27"/>
+      <c r="G413" s="28"/>
     </row>
     <row r="414" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D414" s="31"/>
-      <c r="G414" s="32"/>
+      <c r="D414" s="27"/>
+      <c r="G414" s="28"/>
     </row>
     <row r="415" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D415" s="31"/>
-      <c r="G415" s="32"/>
+      <c r="D415" s="27"/>
+      <c r="G415" s="28"/>
     </row>
     <row r="416" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D416" s="31"/>
-      <c r="G416" s="32"/>
+      <c r="D416" s="27"/>
+      <c r="G416" s="28"/>
     </row>
     <row r="417" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D417" s="31"/>
-      <c r="G417" s="32"/>
+      <c r="D417" s="27"/>
+      <c r="G417" s="28"/>
     </row>
     <row r="418" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D418" s="31"/>
-      <c r="G418" s="32"/>
+      <c r="D418" s="27"/>
+      <c r="G418" s="28"/>
     </row>
     <row r="419" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D419" s="31"/>
-      <c r="G419" s="32"/>
+      <c r="D419" s="27"/>
+      <c r="G419" s="28"/>
     </row>
     <row r="420" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D420" s="31"/>
-      <c r="G420" s="32"/>
+      <c r="D420" s="27"/>
+      <c r="G420" s="28"/>
     </row>
     <row r="421" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D421" s="31"/>
-      <c r="G421" s="32"/>
+      <c r="D421" s="27"/>
+      <c r="G421" s="28"/>
     </row>
     <row r="422" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D422" s="31"/>
-      <c r="G422" s="32"/>
+      <c r="D422" s="27"/>
+      <c r="G422" s="28"/>
     </row>
     <row r="423" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D423" s="31"/>
-      <c r="G423" s="32"/>
+      <c r="D423" s="27"/>
+      <c r="G423" s="28"/>
     </row>
     <row r="424" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D424" s="31"/>
-      <c r="G424" s="32"/>
+      <c r="D424" s="27"/>
+      <c r="G424" s="28"/>
     </row>
     <row r="425" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D425" s="31"/>
-      <c r="G425" s="32"/>
+      <c r="D425" s="27"/>
+      <c r="G425" s="28"/>
     </row>
     <row r="426" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D426" s="31"/>
-      <c r="G426" s="32"/>
+      <c r="D426" s="27"/>
+      <c r="G426" s="28"/>
     </row>
     <row r="427" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D427" s="31"/>
-      <c r="G427" s="32"/>
+      <c r="D427" s="27"/>
+      <c r="G427" s="28"/>
     </row>
     <row r="428" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D428" s="31"/>
-      <c r="G428" s="32"/>
+      <c r="D428" s="27"/>
+      <c r="G428" s="28"/>
     </row>
     <row r="429" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D429" s="31"/>
-      <c r="G429" s="32"/>
+      <c r="D429" s="27"/>
+      <c r="G429" s="28"/>
     </row>
     <row r="430" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D430" s="31"/>
-      <c r="G430" s="32"/>
+      <c r="D430" s="27"/>
+      <c r="G430" s="28"/>
     </row>
     <row r="431" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D431" s="31"/>
-      <c r="G431" s="32"/>
+      <c r="D431" s="27"/>
+      <c r="G431" s="28"/>
     </row>
     <row r="432" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D432" s="31"/>
-      <c r="G432" s="32"/>
+      <c r="D432" s="27"/>
+      <c r="G432" s="28"/>
     </row>
     <row r="433" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D433" s="31"/>
-      <c r="G433" s="32"/>
+      <c r="D433" s="27"/>
+      <c r="G433" s="28"/>
     </row>
     <row r="434" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D434" s="31"/>
-      <c r="G434" s="32"/>
+      <c r="D434" s="27"/>
+      <c r="G434" s="28"/>
     </row>
     <row r="435" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D435" s="31"/>
-      <c r="G435" s="32"/>
+      <c r="D435" s="27"/>
+      <c r="G435" s="28"/>
     </row>
     <row r="436" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D436" s="31"/>
-      <c r="G436" s="32"/>
+      <c r="D436" s="27"/>
+      <c r="G436" s="28"/>
     </row>
     <row r="437" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D437" s="31"/>
-      <c r="G437" s="32"/>
+      <c r="D437" s="27"/>
+      <c r="G437" s="28"/>
     </row>
     <row r="438" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D438" s="31"/>
-      <c r="G438" s="32"/>
+      <c r="D438" s="27"/>
+      <c r="G438" s="28"/>
     </row>
     <row r="439" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D439" s="31"/>
-      <c r="G439" s="32"/>
+      <c r="D439" s="27"/>
+      <c r="G439" s="28"/>
     </row>
     <row r="440" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D440" s="31"/>
-      <c r="G440" s="32"/>
+      <c r="D440" s="27"/>
+      <c r="G440" s="28"/>
     </row>
     <row r="441" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D441" s="31"/>
-      <c r="G441" s="32"/>
+      <c r="D441" s="27"/>
+      <c r="G441" s="28"/>
     </row>
     <row r="442" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D442" s="31"/>
-      <c r="G442" s="32"/>
+      <c r="D442" s="27"/>
+      <c r="G442" s="28"/>
     </row>
     <row r="443" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D443" s="31"/>
-      <c r="G443" s="32"/>
+      <c r="D443" s="27"/>
+      <c r="G443" s="28"/>
     </row>
     <row r="444" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D444" s="31"/>
-      <c r="G444" s="32"/>
+      <c r="D444" s="27"/>
+      <c r="G444" s="28"/>
     </row>
     <row r="445" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D445" s="31"/>
-      <c r="G445" s="32"/>
+      <c r="D445" s="27"/>
+      <c r="G445" s="28"/>
     </row>
     <row r="446" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D446" s="31"/>
-      <c r="G446" s="32"/>
+      <c r="D446" s="27"/>
+      <c r="G446" s="28"/>
     </row>
     <row r="447" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D447" s="31"/>
-      <c r="G447" s="32"/>
+      <c r="D447" s="27"/>
+      <c r="G447" s="28"/>
     </row>
     <row r="448" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D448" s="31"/>
-      <c r="G448" s="32"/>
+      <c r="D448" s="27"/>
+      <c r="G448" s="28"/>
     </row>
     <row r="449" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D449" s="31"/>
-      <c r="G449" s="32"/>
+      <c r="D449" s="27"/>
+      <c r="G449" s="28"/>
     </row>
     <row r="450" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D450" s="31"/>
-      <c r="G450" s="32"/>
+      <c r="D450" s="27"/>
+      <c r="G450" s="28"/>
     </row>
     <row r="451" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D451" s="31"/>
-      <c r="G451" s="32"/>
+      <c r="D451" s="27"/>
+      <c r="G451" s="28"/>
     </row>
     <row r="452" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D452" s="31"/>
-      <c r="G452" s="32"/>
+      <c r="D452" s="27"/>
+      <c r="G452" s="28"/>
     </row>
     <row r="453" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D453" s="31"/>
-      <c r="G453" s="32"/>
+      <c r="D453" s="27"/>
+      <c r="G453" s="28"/>
     </row>
     <row r="454" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D454" s="31"/>
-      <c r="G454" s="32"/>
+      <c r="D454" s="27"/>
+      <c r="G454" s="28"/>
     </row>
     <row r="455" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D455" s="31"/>
-      <c r="G455" s="32"/>
+      <c r="D455" s="27"/>
+      <c r="G455" s="28"/>
     </row>
     <row r="456" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D456" s="31"/>
-      <c r="G456" s="32"/>
+      <c r="D456" s="27"/>
+      <c r="G456" s="28"/>
     </row>
     <row r="457" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D457" s="31"/>
-      <c r="G457" s="32"/>
+      <c r="D457" s="27"/>
+      <c r="G457" s="28"/>
     </row>
     <row r="458" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D458" s="31"/>
-      <c r="G458" s="32"/>
+      <c r="D458" s="27"/>
+      <c r="G458" s="28"/>
     </row>
     <row r="459" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D459" s="31"/>
-      <c r="G459" s="32"/>
+      <c r="D459" s="27"/>
+      <c r="G459" s="28"/>
     </row>
     <row r="460" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D460" s="31"/>
-      <c r="G460" s="32"/>
+      <c r="D460" s="27"/>
+      <c r="G460" s="28"/>
     </row>
     <row r="461" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D461" s="31"/>
-      <c r="G461" s="32"/>
+      <c r="D461" s="27"/>
+      <c r="G461" s="28"/>
     </row>
     <row r="462" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D462" s="31"/>
-      <c r="G462" s="32"/>
+      <c r="D462" s="27"/>
+      <c r="G462" s="28"/>
     </row>
     <row r="463" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D463" s="31"/>
-      <c r="G463" s="32"/>
+      <c r="D463" s="27"/>
+      <c r="G463" s="28"/>
     </row>
     <row r="464" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D464" s="31"/>
-      <c r="G464" s="32"/>
+      <c r="D464" s="27"/>
+      <c r="G464" s="28"/>
     </row>
     <row r="465" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D465" s="31"/>
-      <c r="G465" s="32"/>
+      <c r="D465" s="27"/>
+      <c r="G465" s="28"/>
     </row>
     <row r="466" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D466" s="31"/>
-      <c r="G466" s="32"/>
+      <c r="D466" s="27"/>
+      <c r="G466" s="28"/>
     </row>
     <row r="467" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D467" s="31"/>
-      <c r="G467" s="32"/>
+      <c r="D467" s="27"/>
+      <c r="G467" s="28"/>
     </row>
     <row r="468" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D468" s="31"/>
-      <c r="G468" s="32"/>
+      <c r="D468" s="27"/>
+      <c r="G468" s="28"/>
     </row>
     <row r="469" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D469" s="31"/>
-      <c r="G469" s="32"/>
+      <c r="D469" s="27"/>
+      <c r="G469" s="28"/>
     </row>
     <row r="470" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D470" s="31"/>
-      <c r="G470" s="32"/>
+      <c r="D470" s="27"/>
+      <c r="G470" s="28"/>
     </row>
     <row r="471" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D471" s="31"/>
-      <c r="G471" s="32"/>
+      <c r="D471" s="27"/>
+      <c r="G471" s="28"/>
     </row>
     <row r="472" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D472" s="31"/>
-      <c r="G472" s="32"/>
+      <c r="D472" s="27"/>
+      <c r="G472" s="28"/>
     </row>
     <row r="473" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D473" s="31"/>
-      <c r="G473" s="32"/>
+      <c r="D473" s="27"/>
+      <c r="G473" s="28"/>
     </row>
     <row r="474" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D474" s="31"/>
-      <c r="G474" s="32"/>
+      <c r="D474" s="27"/>
+      <c r="G474" s="28"/>
     </row>
     <row r="475" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D475" s="31"/>
-      <c r="G475" s="32"/>
+      <c r="D475" s="27"/>
+      <c r="G475" s="28"/>
     </row>
     <row r="476" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D476" s="31"/>
-      <c r="G476" s="32"/>
+      <c r="D476" s="27"/>
+      <c r="G476" s="28"/>
     </row>
     <row r="477" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D477" s="31"/>
-      <c r="G477" s="32"/>
+      <c r="D477" s="27"/>
+      <c r="G477" s="28"/>
     </row>
     <row r="478" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D478" s="31"/>
-      <c r="G478" s="32"/>
+      <c r="D478" s="27"/>
+      <c r="G478" s="28"/>
     </row>
     <row r="479" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D479" s="31"/>
-      <c r="G479" s="32"/>
+      <c r="D479" s="27"/>
+      <c r="G479" s="28"/>
     </row>
     <row r="480" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D480" s="31"/>
-      <c r="G480" s="32"/>
+      <c r="D480" s="27"/>
+      <c r="G480" s="28"/>
     </row>
     <row r="481" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D481" s="31"/>
-      <c r="G481" s="32"/>
+      <c r="D481" s="27"/>
+      <c r="G481" s="28"/>
     </row>
     <row r="482" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D482" s="31"/>
-      <c r="G482" s="32"/>
+      <c r="D482" s="27"/>
+      <c r="G482" s="28"/>
     </row>
     <row r="483" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D483" s="31"/>
-      <c r="G483" s="32"/>
+      <c r="D483" s="27"/>
+      <c r="G483" s="28"/>
     </row>
     <row r="484" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D484" s="31"/>
-      <c r="G484" s="32"/>
+      <c r="D484" s="27"/>
+      <c r="G484" s="28"/>
     </row>
     <row r="485" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D485" s="31"/>
-      <c r="G485" s="32"/>
+      <c r="D485" s="27"/>
+      <c r="G485" s="28"/>
     </row>
     <row r="486" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D486" s="31"/>
-      <c r="G486" s="32"/>
+      <c r="D486" s="27"/>
+      <c r="G486" s="28"/>
     </row>
     <row r="487" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D487" s="31"/>
-      <c r="G487" s="32"/>
+      <c r="D487" s="27"/>
+      <c r="G487" s="28"/>
     </row>
     <row r="488" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D488" s="31"/>
-      <c r="G488" s="32"/>
+      <c r="D488" s="27"/>
+      <c r="G488" s="28"/>
     </row>
     <row r="489" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D489" s="31"/>
-      <c r="G489" s="32"/>
+      <c r="D489" s="27"/>
+      <c r="G489" s="28"/>
     </row>
     <row r="490" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D490" s="31"/>
-      <c r="G490" s="32"/>
+      <c r="D490" s="27"/>
+      <c r="G490" s="28"/>
     </row>
     <row r="491" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D491" s="31"/>
-      <c r="G491" s="32"/>
+      <c r="D491" s="27"/>
+      <c r="G491" s="28"/>
     </row>
     <row r="492" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D492" s="31"/>
-      <c r="G492" s="32"/>
+      <c r="D492" s="27"/>
+      <c r="G492" s="28"/>
     </row>
     <row r="493" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D493" s="31"/>
-      <c r="G493" s="32"/>
+      <c r="D493" s="27"/>
+      <c r="G493" s="28"/>
     </row>
     <row r="494" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D494" s="31"/>
-      <c r="G494" s="32"/>
+      <c r="D494" s="27"/>
+      <c r="G494" s="28"/>
     </row>
     <row r="495" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D495" s="31"/>
-      <c r="G495" s="32"/>
+      <c r="D495" s="27"/>
+      <c r="G495" s="28"/>
     </row>
     <row r="496" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D496" s="31"/>
-      <c r="G496" s="32"/>
+      <c r="D496" s="27"/>
+      <c r="G496" s="28"/>
     </row>
     <row r="497" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D497" s="31"/>
-      <c r="G497" s="32"/>
+      <c r="D497" s="27"/>
+      <c r="G497" s="28"/>
     </row>
     <row r="498" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D498" s="31"/>
-      <c r="G498" s="32"/>
+      <c r="D498" s="27"/>
+      <c r="G498" s="28"/>
     </row>
     <row r="499" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D499" s="31"/>
-      <c r="G499" s="32"/>
+      <c r="D499" s="27"/>
+      <c r="G499" s="28"/>
     </row>
     <row r="500" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D500" s="31"/>
-      <c r="G500" s="32"/>
+      <c r="D500" s="27"/>
+      <c r="G500" s="28"/>
     </row>
     <row r="501" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D501" s="31"/>
-      <c r="G501" s="32"/>
+      <c r="D501" s="27"/>
+      <c r="G501" s="28"/>
     </row>
     <row r="502" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D502" s="31"/>
-      <c r="G502" s="32"/>
+      <c r="D502" s="27"/>
+      <c r="G502" s="28"/>
     </row>
     <row r="503" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D503" s="31"/>
-      <c r="G503" s="32"/>
+      <c r="D503" s="27"/>
+      <c r="G503" s="28"/>
     </row>
     <row r="504" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D504" s="31"/>
-      <c r="G504" s="32"/>
+      <c r="D504" s="27"/>
+      <c r="G504" s="28"/>
     </row>
     <row r="505" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D505" s="31"/>
-      <c r="G505" s="32"/>
+      <c r="D505" s="27"/>
+      <c r="G505" s="28"/>
     </row>
     <row r="506" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D506" s="31"/>
-      <c r="G506" s="32"/>
+      <c r="D506" s="27"/>
+      <c r="G506" s="28"/>
     </row>
     <row r="507" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D507" s="31"/>
-      <c r="G507" s="32"/>
+      <c r="D507" s="27"/>
+      <c r="G507" s="28"/>
     </row>
     <row r="508" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D508" s="31"/>
-      <c r="G508" s="32"/>
+      <c r="D508" s="27"/>
+      <c r="G508" s="28"/>
     </row>
     <row r="509" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D509" s="31"/>
-      <c r="G509" s="32"/>
+      <c r="D509" s="27"/>
+      <c r="G509" s="28"/>
     </row>
     <row r="510" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D510" s="31"/>
-      <c r="G510" s="32"/>
+      <c r="D510" s="27"/>
+      <c r="G510" s="28"/>
     </row>
     <row r="511" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D511" s="31"/>
-      <c r="G511" s="32"/>
+      <c r="D511" s="27"/>
+      <c r="G511" s="28"/>
     </row>
     <row r="512" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D512" s="31"/>
-      <c r="G512" s="32"/>
+      <c r="D512" s="27"/>
+      <c r="G512" s="28"/>
     </row>
     <row r="513" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D513" s="31"/>
-      <c r="G513" s="32"/>
+      <c r="D513" s="27"/>
+      <c r="G513" s="28"/>
     </row>
     <row r="514" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D514" s="31"/>
-      <c r="G514" s="32"/>
+      <c r="D514" s="27"/>
+      <c r="G514" s="28"/>
     </row>
     <row r="515" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D515" s="31"/>
-      <c r="G515" s="32"/>
+      <c r="D515" s="27"/>
+      <c r="G515" s="28"/>
     </row>
     <row r="516" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D516" s="31"/>
-      <c r="G516" s="32"/>
+      <c r="D516" s="27"/>
+      <c r="G516" s="28"/>
     </row>
     <row r="517" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D517" s="31"/>
-      <c r="G517" s="32"/>
+      <c r="D517" s="27"/>
+      <c r="G517" s="28"/>
     </row>
     <row r="518" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D518" s="31"/>
-      <c r="G518" s="32"/>
+      <c r="D518" s="27"/>
+      <c r="G518" s="28"/>
     </row>
     <row r="519" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D519" s="31"/>
-      <c r="G519" s="32"/>
+      <c r="D519" s="27"/>
+      <c r="G519" s="28"/>
     </row>
     <row r="520" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D520" s="31"/>
-      <c r="G520" s="32"/>
+      <c r="D520" s="27"/>
+      <c r="G520" s="28"/>
     </row>
     <row r="521" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D521" s="31"/>
-      <c r="G521" s="32"/>
+      <c r="D521" s="27"/>
+      <c r="G521" s="28"/>
     </row>
     <row r="522" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D522" s="31"/>
-      <c r="G522" s="32"/>
+      <c r="D522" s="27"/>
+      <c r="G522" s="28"/>
     </row>
     <row r="523" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D523" s="31"/>
-      <c r="G523" s="32"/>
+      <c r="D523" s="27"/>
+      <c r="G523" s="28"/>
     </row>
     <row r="524" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D524" s="31"/>
-      <c r="G524" s="32"/>
+      <c r="D524" s="27"/>
+      <c r="G524" s="28"/>
     </row>
     <row r="525" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D525" s="31"/>
-      <c r="G525" s="32"/>
+      <c r="D525" s="27"/>
+      <c r="G525" s="28"/>
     </row>
     <row r="526" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D526" s="31"/>
-      <c r="G526" s="32"/>
+      <c r="D526" s="27"/>
+      <c r="G526" s="28"/>
     </row>
     <row r="527" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D527" s="31"/>
-      <c r="G527" s="32"/>
+      <c r="D527" s="27"/>
+      <c r="G527" s="28"/>
     </row>
     <row r="528" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D528" s="31"/>
-      <c r="G528" s="32"/>
+      <c r="D528" s="27"/>
+      <c r="G528" s="28"/>
     </row>
     <row r="529" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D529" s="31"/>
-      <c r="G529" s="32"/>
+      <c r="D529" s="27"/>
+      <c r="G529" s="28"/>
     </row>
     <row r="530" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D530" s="31"/>
-      <c r="G530" s="32"/>
+      <c r="D530" s="27"/>
+      <c r="G530" s="28"/>
     </row>
     <row r="531" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D531" s="31"/>
-      <c r="G531" s="32"/>
+      <c r="D531" s="27"/>
+      <c r="G531" s="28"/>
     </row>
     <row r="532" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D532" s="31"/>
-      <c r="G532" s="32"/>
+      <c r="D532" s="27"/>
+      <c r="G532" s="28"/>
     </row>
     <row r="533" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D533" s="31"/>
-      <c r="G533" s="32"/>
+      <c r="D533" s="27"/>
+      <c r="G533" s="28"/>
     </row>
     <row r="534" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D534" s="31"/>
-      <c r="G534" s="32"/>
+      <c r="D534" s="27"/>
+      <c r="G534" s="28"/>
     </row>
     <row r="535" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D535" s="31"/>
-      <c r="G535" s="32"/>
+      <c r="D535" s="27"/>
+      <c r="G535" s="28"/>
     </row>
     <row r="536" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D536" s="31"/>
-      <c r="G536" s="32"/>
+      <c r="D536" s="27"/>
+      <c r="G536" s="28"/>
     </row>
     <row r="537" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D537" s="31"/>
-      <c r="G537" s="32"/>
+      <c r="D537" s="27"/>
+      <c r="G537" s="28"/>
     </row>
     <row r="538" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D538" s="31"/>
-      <c r="G538" s="32"/>
+      <c r="D538" s="27"/>
+      <c r="G538" s="28"/>
     </row>
     <row r="539" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D539" s="31"/>
-      <c r="G539" s="32"/>
+      <c r="D539" s="27"/>
+      <c r="G539" s="28"/>
     </row>
     <row r="540" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D540" s="31"/>
-      <c r="G540" s="32"/>
+      <c r="D540" s="27"/>
+      <c r="G540" s="28"/>
     </row>
     <row r="541" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D541" s="31"/>
-      <c r="G541" s="32"/>
+      <c r="D541" s="27"/>
+      <c r="G541" s="28"/>
     </row>
     <row r="542" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D542" s="31"/>
-      <c r="G542" s="32"/>
+      <c r="D542" s="27"/>
+      <c r="G542" s="28"/>
     </row>
     <row r="543" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D543" s="31"/>
-      <c r="G543" s="32"/>
+      <c r="D543" s="27"/>
+      <c r="G543" s="28"/>
     </row>
     <row r="544" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D544" s="31"/>
-      <c r="G544" s="32"/>
+      <c r="D544" s="27"/>
+      <c r="G544" s="28"/>
     </row>
     <row r="545" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D545" s="31"/>
-      <c r="G545" s="32"/>
+      <c r="D545" s="27"/>
+      <c r="G545" s="28"/>
     </row>
     <row r="546" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D546" s="31"/>
-      <c r="G546" s="32"/>
+      <c r="D546" s="27"/>
+      <c r="G546" s="28"/>
     </row>
     <row r="547" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D547" s="31"/>
-      <c r="G547" s="32"/>
+      <c r="D547" s="27"/>
+      <c r="G547" s="28"/>
     </row>
     <row r="548" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D548" s="31"/>
-      <c r="G548" s="32"/>
+      <c r="D548" s="27"/>
+      <c r="G548" s="28"/>
     </row>
     <row r="549" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D549" s="31"/>
-      <c r="G549" s="32"/>
+      <c r="D549" s="27"/>
+      <c r="G549" s="28"/>
     </row>
     <row r="550" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D550" s="31"/>
-      <c r="G550" s="32"/>
+      <c r="D550" s="27"/>
+      <c r="G550" s="28"/>
     </row>
     <row r="551" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D551" s="31"/>
-      <c r="G551" s="32"/>
+      <c r="D551" s="27"/>
+      <c r="G551" s="28"/>
     </row>
     <row r="552" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D552" s="31"/>
-      <c r="G552" s="32"/>
+      <c r="D552" s="27"/>
+      <c r="G552" s="28"/>
     </row>
     <row r="553" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D553" s="31"/>
-      <c r="G553" s="32"/>
+      <c r="D553" s="27"/>
+      <c r="G553" s="28"/>
     </row>
     <row r="554" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D554" s="31"/>
-      <c r="G554" s="32"/>
+      <c r="D554" s="27"/>
+      <c r="G554" s="28"/>
     </row>
     <row r="555" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D555" s="31"/>
-      <c r="G555" s="32"/>
+      <c r="D555" s="27"/>
+      <c r="G555" s="28"/>
     </row>
     <row r="556" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D556" s="31"/>
-      <c r="G556" s="32"/>
+      <c r="D556" s="27"/>
+      <c r="G556" s="28"/>
     </row>
     <row r="557" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D557" s="31"/>
-      <c r="G557" s="32"/>
+      <c r="D557" s="27"/>
+      <c r="G557" s="28"/>
     </row>
     <row r="558" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D558" s="31"/>
-      <c r="G558" s="32"/>
+      <c r="D558" s="27"/>
+      <c r="G558" s="28"/>
     </row>
     <row r="559" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D559" s="31"/>
-      <c r="G559" s="32"/>
+      <c r="D559" s="27"/>
+      <c r="G559" s="28"/>
     </row>
     <row r="560" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D560" s="31"/>
-      <c r="G560" s="32"/>
+      <c r="D560" s="27"/>
+      <c r="G560" s="28"/>
     </row>
     <row r="561" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D561" s="31"/>
-      <c r="G561" s="32"/>
+      <c r="D561" s="27"/>
+      <c r="G561" s="28"/>
     </row>
     <row r="562" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D562" s="31"/>
-      <c r="G562" s="32"/>
+      <c r="D562" s="27"/>
+      <c r="G562" s="28"/>
     </row>
     <row r="563" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D563" s="31"/>
-      <c r="G563" s="32"/>
+      <c r="D563" s="27"/>
+      <c r="G563" s="28"/>
     </row>
     <row r="564" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D564" s="31"/>
-      <c r="G564" s="32"/>
+      <c r="D564" s="27"/>
+      <c r="G564" s="28"/>
     </row>
     <row r="565" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D565" s="31"/>
-      <c r="G565" s="32"/>
+      <c r="D565" s="27"/>
+      <c r="G565" s="28"/>
     </row>
     <row r="566" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D566" s="31"/>
-      <c r="G566" s="32"/>
+      <c r="D566" s="27"/>
+      <c r="G566" s="28"/>
     </row>
     <row r="567" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D567" s="31"/>
-      <c r="G567" s="32"/>
+      <c r="D567" s="27"/>
+      <c r="G567" s="28"/>
     </row>
     <row r="568" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D568" s="31"/>
-      <c r="G568" s="32"/>
+      <c r="D568" s="27"/>
+      <c r="G568" s="28"/>
     </row>
     <row r="569" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D569" s="31"/>
-      <c r="G569" s="32"/>
+      <c r="D569" s="27"/>
+      <c r="G569" s="28"/>
     </row>
     <row r="570" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D570" s="31"/>
-      <c r="G570" s="32"/>
+      <c r="D570" s="27"/>
+      <c r="G570" s="28"/>
     </row>
     <row r="571" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D571" s="31"/>
-      <c r="G571" s="32"/>
+      <c r="D571" s="27"/>
+      <c r="G571" s="28"/>
     </row>
     <row r="572" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D572" s="31"/>
-      <c r="G572" s="32"/>
+      <c r="D572" s="27"/>
+      <c r="G572" s="28"/>
     </row>
     <row r="573" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D573" s="31"/>
-      <c r="G573" s="32"/>
+      <c r="D573" s="27"/>
+      <c r="G573" s="28"/>
     </row>
     <row r="574" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D574" s="31"/>
-      <c r="G574" s="32"/>
+      <c r="D574" s="27"/>
+      <c r="G574" s="28"/>
     </row>
     <row r="575" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D575" s="31"/>
-      <c r="G575" s="32"/>
+      <c r="D575" s="27"/>
+      <c r="G575" s="28"/>
     </row>
     <row r="576" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D576" s="31"/>
-      <c r="G576" s="32"/>
+      <c r="D576" s="27"/>
+      <c r="G576" s="28"/>
     </row>
     <row r="577" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D577" s="31"/>
-      <c r="G577" s="32"/>
+      <c r="D577" s="27"/>
+      <c r="G577" s="28"/>
     </row>
     <row r="578" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D578" s="31"/>
-      <c r="G578" s="32"/>
+      <c r="D578" s="27"/>
+      <c r="G578" s="28"/>
     </row>
     <row r="579" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D579" s="31"/>
-      <c r="G579" s="32"/>
+      <c r="D579" s="27"/>
+      <c r="G579" s="28"/>
     </row>
     <row r="580" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D580" s="31"/>
-      <c r="G580" s="32"/>
+      <c r="D580" s="27"/>
+      <c r="G580" s="28"/>
     </row>
     <row r="581" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D581" s="31"/>
-      <c r="G581" s="32"/>
+      <c r="D581" s="27"/>
+      <c r="G581" s="28"/>
     </row>
     <row r="582" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D582" s="31"/>
-      <c r="G582" s="32"/>
+      <c r="D582" s="27"/>
+      <c r="G582" s="28"/>
     </row>
     <row r="583" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D583" s="31"/>
-      <c r="G583" s="32"/>
+      <c r="D583" s="27"/>
+      <c r="G583" s="28"/>
     </row>
     <row r="584" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D584" s="31"/>
-      <c r="G584" s="32"/>
+      <c r="D584" s="27"/>
+      <c r="G584" s="28"/>
     </row>
     <row r="585" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D585" s="31"/>
-      <c r="G585" s="32"/>
+      <c r="D585" s="27"/>
+      <c r="G585" s="28"/>
     </row>
     <row r="586" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D586" s="31"/>
-      <c r="G586" s="32"/>
+      <c r="D586" s="27"/>
+      <c r="G586" s="28"/>
     </row>
     <row r="587" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D587" s="31"/>
-      <c r="G587" s="32"/>
+      <c r="D587" s="27"/>
+      <c r="G587" s="28"/>
     </row>
     <row r="588" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D588" s="31"/>
-      <c r="G588" s="32"/>
+      <c r="D588" s="27"/>
+      <c r="G588" s="28"/>
     </row>
     <row r="589" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D589" s="31"/>
-      <c r="G589" s="32"/>
+      <c r="D589" s="27"/>
+      <c r="G589" s="28"/>
     </row>
     <row r="590" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D590" s="31"/>
-      <c r="G590" s="32"/>
+      <c r="D590" s="27"/>
+      <c r="G590" s="28"/>
     </row>
     <row r="591" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D591" s="31"/>
-      <c r="G591" s="32"/>
+      <c r="D591" s="27"/>
+      <c r="G591" s="28"/>
     </row>
     <row r="592" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D592" s="31"/>
-      <c r="G592" s="32"/>
+      <c r="D592" s="27"/>
+      <c r="G592" s="28"/>
     </row>
     <row r="593" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D593" s="31"/>
-      <c r="G593" s="32"/>
+      <c r="D593" s="27"/>
+      <c r="G593" s="28"/>
     </row>
     <row r="594" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D594" s="31"/>
-      <c r="G594" s="32"/>
+      <c r="D594" s="27"/>
+      <c r="G594" s="28"/>
     </row>
     <row r="595" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D595" s="31"/>
-      <c r="G595" s="32"/>
+      <c r="D595" s="27"/>
+      <c r="G595" s="28"/>
     </row>
     <row r="596" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D596" s="31"/>
-      <c r="G596" s="32"/>
+      <c r="D596" s="27"/>
+      <c r="G596" s="28"/>
     </row>
     <row r="597" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D597" s="31"/>
-      <c r="G597" s="32"/>
+      <c r="D597" s="27"/>
+      <c r="G597" s="28"/>
     </row>
     <row r="598" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D598" s="31"/>
-      <c r="G598" s="32"/>
+      <c r="D598" s="27"/>
+      <c r="G598" s="28"/>
     </row>
     <row r="599" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D599" s="31"/>
-      <c r="G599" s="32"/>
+      <c r="D599" s="27"/>
+      <c r="G599" s="28"/>
     </row>
     <row r="600" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D600" s="31"/>
-      <c r="G600" s="32"/>
+      <c r="D600" s="27"/>
+      <c r="G600" s="28"/>
     </row>
     <row r="601" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D601" s="31"/>
-      <c r="G601" s="32"/>
+      <c r="D601" s="27"/>
+      <c r="G601" s="28"/>
     </row>
     <row r="602" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D602" s="31"/>
-      <c r="G602" s="32"/>
+      <c r="D602" s="27"/>
+      <c r="G602" s="28"/>
     </row>
     <row r="603" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D603" s="31"/>
-      <c r="G603" s="32"/>
+      <c r="D603" s="27"/>
+      <c r="G603" s="28"/>
     </row>
     <row r="604" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D604" s="31"/>
-      <c r="G604" s="32"/>
+      <c r="D604" s="27"/>
+      <c r="G604" s="28"/>
     </row>
     <row r="605" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D605" s="31"/>
-      <c r="G605" s="32"/>
+      <c r="D605" s="27"/>
+      <c r="G605" s="28"/>
     </row>
     <row r="606" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D606" s="31"/>
-      <c r="G606" s="32"/>
+      <c r="D606" s="27"/>
+      <c r="G606" s="28"/>
     </row>
     <row r="607" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D607" s="31"/>
-      <c r="G607" s="32"/>
+      <c r="D607" s="27"/>
+      <c r="G607" s="28"/>
     </row>
     <row r="608" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D608" s="31"/>
-      <c r="G608" s="32"/>
+      <c r="D608" s="27"/>
+      <c r="G608" s="28"/>
     </row>
     <row r="609" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D609" s="31"/>
-      <c r="G609" s="32"/>
+      <c r="D609" s="27"/>
+      <c r="G609" s="28"/>
     </row>
     <row r="610" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D610" s="31"/>
-      <c r="G610" s="32"/>
+      <c r="D610" s="27"/>
+      <c r="G610" s="28"/>
     </row>
     <row r="611" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D611" s="31"/>
-      <c r="G611" s="32"/>
+      <c r="D611" s="27"/>
+      <c r="G611" s="28"/>
     </row>
     <row r="612" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D612" s="31"/>
-      <c r="G612" s="32"/>
+      <c r="D612" s="27"/>
+      <c r="G612" s="28"/>
     </row>
     <row r="613" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D613" s="31"/>
-      <c r="G613" s="32"/>
+      <c r="D613" s="27"/>
+      <c r="G613" s="28"/>
     </row>
     <row r="614" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D614" s="31"/>
-      <c r="G614" s="32"/>
+      <c r="D614" s="27"/>
+      <c r="G614" s="28"/>
     </row>
     <row r="615" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D615" s="31"/>
-      <c r="G615" s="32"/>
+      <c r="D615" s="27"/>
+      <c r="G615" s="28"/>
     </row>
     <row r="616" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D616" s="31"/>
-      <c r="G616" s="32"/>
+      <c r="D616" s="27"/>
+      <c r="G616" s="28"/>
     </row>
     <row r="617" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D617" s="31"/>
-      <c r="G617" s="32"/>
+      <c r="D617" s="27"/>
+      <c r="G617" s="28"/>
     </row>
     <row r="618" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D618" s="31"/>
-      <c r="G618" s="32"/>
+      <c r="D618" s="27"/>
+      <c r="G618" s="28"/>
     </row>
     <row r="619" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D619" s="31"/>
-      <c r="G619" s="32"/>
+      <c r="D619" s="27"/>
+      <c r="G619" s="28"/>
     </row>
     <row r="620" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D620" s="31"/>
-      <c r="G620" s="32"/>
+      <c r="D620" s="27"/>
+      <c r="G620" s="28"/>
     </row>
     <row r="621" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D621" s="31"/>
-      <c r="G621" s="32"/>
+      <c r="D621" s="27"/>
+      <c r="G621" s="28"/>
     </row>
     <row r="622" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D622" s="31"/>
-      <c r="G622" s="32"/>
+      <c r="D622" s="27"/>
+      <c r="G622" s="28"/>
     </row>
     <row r="623" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D623" s="31"/>
-      <c r="G623" s="32"/>
+      <c r="D623" s="27"/>
+      <c r="G623" s="28"/>
     </row>
     <row r="624" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D624" s="31"/>
-      <c r="G624" s="32"/>
+      <c r="D624" s="27"/>
+      <c r="G624" s="28"/>
     </row>
     <row r="625" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D625" s="31"/>
-      <c r="G625" s="32"/>
+      <c r="D625" s="27"/>
+      <c r="G625" s="28"/>
     </row>
     <row r="626" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D626" s="31"/>
-      <c r="G626" s="32"/>
+      <c r="D626" s="27"/>
+      <c r="G626" s="28"/>
     </row>
     <row r="627" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D627" s="31"/>
-      <c r="G627" s="32"/>
+      <c r="D627" s="27"/>
+      <c r="G627" s="28"/>
     </row>
     <row r="628" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D628" s="31"/>
-      <c r="G628" s="32"/>
+      <c r="D628" s="27"/>
+      <c r="G628" s="28"/>
     </row>
     <row r="629" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D629" s="31"/>
-      <c r="G629" s="32"/>
+      <c r="D629" s="27"/>
+      <c r="G629" s="28"/>
     </row>
     <row r="630" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D630" s="31"/>
-      <c r="G630" s="32"/>
+      <c r="D630" s="27"/>
+      <c r="G630" s="28"/>
     </row>
     <row r="631" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D631" s="31"/>
-      <c r="G631" s="32"/>
+      <c r="D631" s="27"/>
+      <c r="G631" s="28"/>
     </row>
     <row r="632" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D632" s="31"/>
-      <c r="G632" s="32"/>
+      <c r="D632" s="27"/>
+      <c r="G632" s="28"/>
     </row>
     <row r="633" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D633" s="31"/>
-      <c r="G633" s="32"/>
+      <c r="D633" s="27"/>
+      <c r="G633" s="28"/>
     </row>
     <row r="634" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D634" s="31"/>
-      <c r="G634" s="32"/>
+      <c r="D634" s="27"/>
+      <c r="G634" s="28"/>
     </row>
     <row r="635" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D635" s="31"/>
-      <c r="G635" s="32"/>
+      <c r="D635" s="27"/>
+      <c r="G635" s="28"/>
     </row>
     <row r="636" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D636" s="31"/>
-      <c r="G636" s="32"/>
+      <c r="D636" s="27"/>
+      <c r="G636" s="28"/>
     </row>
     <row r="637" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D637" s="31"/>
-      <c r="G637" s="32"/>
+      <c r="D637" s="27"/>
+      <c r="G637" s="28"/>
     </row>
     <row r="638" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D638" s="31"/>
-      <c r="G638" s="32"/>
+      <c r="D638" s="27"/>
+      <c r="G638" s="28"/>
     </row>
     <row r="639" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D639" s="31"/>
-      <c r="G639" s="32"/>
+      <c r="D639" s="27"/>
+      <c r="G639" s="28"/>
     </row>
     <row r="640" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D640" s="31"/>
-      <c r="G640" s="32"/>
+      <c r="D640" s="27"/>
+      <c r="G640" s="28"/>
     </row>
     <row r="641" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D641" s="31"/>
-      <c r="G641" s="32"/>
+      <c r="D641" s="27"/>
+      <c r="G641" s="28"/>
     </row>
     <row r="642" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D642" s="31"/>
-      <c r="G642" s="32"/>
+      <c r="D642" s="27"/>
+      <c r="G642" s="28"/>
     </row>
     <row r="643" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D643" s="31"/>
-      <c r="G643" s="32"/>
+      <c r="D643" s="27"/>
+      <c r="G643" s="28"/>
     </row>
     <row r="644" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D644" s="31"/>
-      <c r="G644" s="32"/>
+      <c r="D644" s="27"/>
+      <c r="G644" s="28"/>
     </row>
     <row r="645" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D645" s="31"/>
-      <c r="G645" s="32"/>
+      <c r="D645" s="27"/>
+      <c r="G645" s="28"/>
     </row>
     <row r="646" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D646" s="31"/>
-      <c r="G646" s="32"/>
+      <c r="D646" s="27"/>
+      <c r="G646" s="28"/>
     </row>
     <row r="647" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D647" s="31"/>
-      <c r="G647" s="32"/>
+      <c r="D647" s="27"/>
+      <c r="G647" s="28"/>
     </row>
     <row r="648" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D648" s="31"/>
-      <c r="G648" s="32"/>
+      <c r="D648" s="27"/>
+      <c r="G648" s="28"/>
     </row>
     <row r="649" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D649" s="31"/>
-      <c r="G649" s="32"/>
+      <c r="D649" s="27"/>
+      <c r="G649" s="28"/>
     </row>
     <row r="650" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D650" s="31"/>
-      <c r="G650" s="32"/>
+      <c r="D650" s="27"/>
+      <c r="G650" s="28"/>
     </row>
     <row r="651" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D651" s="31"/>
-      <c r="G651" s="32"/>
+      <c r="D651" s="27"/>
+      <c r="G651" s="28"/>
     </row>
     <row r="652" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D652" s="31"/>
-      <c r="G652" s="32"/>
+      <c r="D652" s="27"/>
+      <c r="G652" s="28"/>
     </row>
     <row r="653" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D653" s="31"/>
-      <c r="G653" s="32"/>
+      <c r="D653" s="27"/>
+      <c r="G653" s="28"/>
     </row>
     <row r="654" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D654" s="31"/>
-      <c r="G654" s="32"/>
+      <c r="D654" s="27"/>
+      <c r="G654" s="28"/>
     </row>
     <row r="655" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D655" s="31"/>
-      <c r="G655" s="32"/>
+      <c r="D655" s="27"/>
+      <c r="G655" s="28"/>
     </row>
     <row r="656" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D656" s="31"/>
-      <c r="G656" s="32"/>
+      <c r="D656" s="27"/>
+      <c r="G656" s="28"/>
     </row>
     <row r="657" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D657" s="31"/>
-      <c r="G657" s="32"/>
+      <c r="D657" s="27"/>
+      <c r="G657" s="28"/>
     </row>
     <row r="658" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D658" s="31"/>
-      <c r="G658" s="32"/>
+      <c r="D658" s="27"/>
+      <c r="G658" s="28"/>
     </row>
     <row r="659" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D659" s="31"/>
-      <c r="G659" s="32"/>
+      <c r="D659" s="27"/>
+      <c r="G659" s="28"/>
     </row>
     <row r="660" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D660" s="31"/>
-      <c r="G660" s="32"/>
+      <c r="D660" s="27"/>
+      <c r="G660" s="28"/>
     </row>
     <row r="661" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D661" s="31"/>
-      <c r="G661" s="32"/>
+      <c r="D661" s="27"/>
+      <c r="G661" s="28"/>
     </row>
     <row r="662" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D662" s="31"/>
-      <c r="G662" s="32"/>
+      <c r="D662" s="27"/>
+      <c r="G662" s="28"/>
     </row>
     <row r="663" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D663" s="31"/>
-      <c r="G663" s="32"/>
+      <c r="D663" s="27"/>
+      <c r="G663" s="28"/>
     </row>
     <row r="664" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D664" s="31"/>
-      <c r="G664" s="32"/>
+      <c r="D664" s="27"/>
+      <c r="G664" s="28"/>
     </row>
     <row r="665" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D665" s="31"/>
-      <c r="G665" s="32"/>
+      <c r="D665" s="27"/>
+      <c r="G665" s="28"/>
     </row>
     <row r="666" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D666" s="31"/>
-      <c r="G666" s="32"/>
+      <c r="D666" s="27"/>
+      <c r="G666" s="28"/>
     </row>
     <row r="667" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D667" s="31"/>
-      <c r="G667" s="32"/>
+      <c r="D667" s="27"/>
+      <c r="G667" s="28"/>
     </row>
     <row r="668" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D668" s="31"/>
-      <c r="G668" s="32"/>
+      <c r="D668" s="27"/>
+      <c r="G668" s="28"/>
     </row>
     <row r="669" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D669" s="31"/>
-      <c r="G669" s="32"/>
+      <c r="D669" s="27"/>
+      <c r="G669" s="28"/>
     </row>
     <row r="670" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D670" s="31"/>
-      <c r="G670" s="32"/>
+      <c r="D670" s="27"/>
+      <c r="G670" s="28"/>
     </row>
     <row r="671" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D671" s="31"/>
-      <c r="G671" s="32"/>
+      <c r="D671" s="27"/>
+      <c r="G671" s="28"/>
     </row>
     <row r="672" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D672" s="31"/>
-      <c r="G672" s="32"/>
+      <c r="D672" s="27"/>
+      <c r="G672" s="28"/>
     </row>
     <row r="673" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D673" s="31"/>
-      <c r="G673" s="32"/>
+      <c r="D673" s="27"/>
+      <c r="G673" s="28"/>
     </row>
     <row r="674" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D674" s="31"/>
-      <c r="G674" s="32"/>
+      <c r="D674" s="27"/>
+      <c r="G674" s="28"/>
     </row>
     <row r="675" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D675" s="31"/>
-      <c r="G675" s="32"/>
+      <c r="D675" s="27"/>
+      <c r="G675" s="28"/>
     </row>
     <row r="676" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D676" s="31"/>
-      <c r="G676" s="32"/>
+      <c r="D676" s="27"/>
+      <c r="G676" s="28"/>
     </row>
     <row r="677" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D677" s="31"/>
-      <c r="G677" s="32"/>
+      <c r="D677" s="27"/>
+      <c r="G677" s="28"/>
     </row>
     <row r="678" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D678" s="31"/>
-      <c r="G678" s="32"/>
+      <c r="D678" s="27"/>
+      <c r="G678" s="28"/>
     </row>
     <row r="679" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D679" s="31"/>
-      <c r="G679" s="32"/>
+      <c r="D679" s="27"/>
+      <c r="G679" s="28"/>
     </row>
     <row r="680" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D680" s="31"/>
-      <c r="G680" s="32"/>
+      <c r="D680" s="27"/>
+      <c r="G680" s="28"/>
     </row>
     <row r="681" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D681" s="31"/>
-      <c r="G681" s="32"/>
+      <c r="D681" s="27"/>
+      <c r="G681" s="28"/>
     </row>
     <row r="682" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D682" s="31"/>
-      <c r="G682" s="32"/>
+      <c r="D682" s="27"/>
+      <c r="G682" s="28"/>
     </row>
     <row r="683" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D683" s="31"/>
-      <c r="G683" s="32"/>
+      <c r="D683" s="27"/>
+      <c r="G683" s="28"/>
     </row>
     <row r="684" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D684" s="31"/>
-      <c r="G684" s="32"/>
+      <c r="D684" s="27"/>
+      <c r="G684" s="28"/>
     </row>
     <row r="685" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D685" s="31"/>
-      <c r="G685" s="32"/>
+      <c r="D685" s="27"/>
+      <c r="G685" s="28"/>
     </row>
     <row r="686" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D686" s="31"/>
-      <c r="G686" s="32"/>
+      <c r="D686" s="27"/>
+      <c r="G686" s="28"/>
     </row>
     <row r="687" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D687" s="31"/>
-      <c r="G687" s="32"/>
+      <c r="D687" s="27"/>
+      <c r="G687" s="28"/>
     </row>
     <row r="688" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D688" s="31"/>
-      <c r="G688" s="32"/>
+      <c r="D688" s="27"/>
+      <c r="G688" s="28"/>
     </row>
     <row r="689" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D689" s="31"/>
-      <c r="G689" s="32"/>
+      <c r="D689" s="27"/>
+      <c r="G689" s="28"/>
     </row>
     <row r="690" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D690" s="31"/>
-      <c r="G690" s="32"/>
+      <c r="D690" s="27"/>
+      <c r="G690" s="28"/>
     </row>
     <row r="691" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D691" s="31"/>
-      <c r="G691" s="32"/>
+      <c r="D691" s="27"/>
+      <c r="G691" s="28"/>
     </row>
     <row r="692" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D692" s="31"/>
-      <c r="G692" s="32"/>
+      <c r="D692" s="27"/>
+      <c r="G692" s="28"/>
     </row>
     <row r="693" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D693" s="31"/>
-      <c r="G693" s="32"/>
+      <c r="D693" s="27"/>
+      <c r="G693" s="28"/>
     </row>
     <row r="694" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D694" s="31"/>
-      <c r="G694" s="32"/>
+      <c r="D694" s="27"/>
+      <c r="G694" s="28"/>
     </row>
     <row r="695" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D695" s="31"/>
-      <c r="G695" s="32"/>
+      <c r="D695" s="27"/>
+      <c r="G695" s="28"/>
     </row>
     <row r="696" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D696" s="31"/>
-      <c r="G696" s="32"/>
+      <c r="D696" s="27"/>
+      <c r="G696" s="28"/>
     </row>
     <row r="697" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D697" s="31"/>
-      <c r="G697" s="32"/>
+      <c r="D697" s="27"/>
+      <c r="G697" s="28"/>
     </row>
     <row r="698" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D698" s="31"/>
-      <c r="G698" s="32"/>
+      <c r="D698" s="27"/>
+      <c r="G698" s="28"/>
     </row>
     <row r="699" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D699" s="31"/>
-      <c r="G699" s="32"/>
+      <c r="D699" s="27"/>
+      <c r="G699" s="28"/>
     </row>
     <row r="700" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D700" s="31"/>
-      <c r="G700" s="32"/>
+      <c r="D700" s="27"/>
+      <c r="G700" s="28"/>
     </row>
     <row r="701" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D701" s="31"/>
-      <c r="G701" s="32"/>
+      <c r="D701" s="27"/>
+      <c r="G701" s="28"/>
     </row>
     <row r="702" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D702" s="31"/>
-      <c r="G702" s="32"/>
+      <c r="D702" s="27"/>
+      <c r="G702" s="28"/>
     </row>
     <row r="703" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D703" s="31"/>
-      <c r="G703" s="32"/>
+      <c r="D703" s="27"/>
+      <c r="G703" s="28"/>
     </row>
     <row r="704" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D704" s="31"/>
-      <c r="G704" s="32"/>
+      <c r="D704" s="27"/>
+      <c r="G704" s="28"/>
     </row>
     <row r="705" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D705" s="31"/>
-      <c r="G705" s="32"/>
+      <c r="D705" s="27"/>
+      <c r="G705" s="28"/>
     </row>
     <row r="706" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D706" s="31"/>
-      <c r="G706" s="32"/>
+      <c r="D706" s="27"/>
+      <c r="G706" s="28"/>
     </row>
     <row r="707" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D707" s="31"/>
-      <c r="G707" s="32"/>
+      <c r="D707" s="27"/>
+      <c r="G707" s="28"/>
     </row>
     <row r="708" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D708" s="31"/>
-      <c r="G708" s="32"/>
+      <c r="D708" s="27"/>
+      <c r="G708" s="28"/>
     </row>
     <row r="709" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D709" s="31"/>
-      <c r="G709" s="32"/>
+      <c r="D709" s="27"/>
+      <c r="G709" s="28"/>
     </row>
     <row r="710" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D710" s="31"/>
-      <c r="G710" s="32"/>
+      <c r="D710" s="27"/>
+      <c r="G710" s="28"/>
     </row>
     <row r="711" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D711" s="31"/>
-      <c r="G711" s="32"/>
+      <c r="D711" s="27"/>
+      <c r="G711" s="28"/>
     </row>
     <row r="712" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D712" s="31"/>
-      <c r="G712" s="32"/>
+      <c r="D712" s="27"/>
+      <c r="G712" s="28"/>
     </row>
     <row r="713" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D713" s="31"/>
-      <c r="G713" s="32"/>
+      <c r="D713" s="27"/>
+      <c r="G713" s="28"/>
     </row>
     <row r="714" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D714" s="31"/>
-      <c r="G714" s="32"/>
+      <c r="D714" s="27"/>
+      <c r="G714" s="28"/>
     </row>
     <row r="715" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D715" s="31"/>
-      <c r="G715" s="32"/>
+      <c r="D715" s="27"/>
+      <c r="G715" s="28"/>
     </row>
     <row r="716" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D716" s="31"/>
-      <c r="G716" s="32"/>
+      <c r="D716" s="27"/>
+      <c r="G716" s="28"/>
     </row>
     <row r="717" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D717" s="31"/>
-      <c r="G717" s="32"/>
+      <c r="D717" s="27"/>
+      <c r="G717" s="28"/>
     </row>
     <row r="718" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D718" s="31"/>
-      <c r="G718" s="32"/>
+      <c r="D718" s="27"/>
+      <c r="G718" s="28"/>
     </row>
     <row r="719" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D719" s="31"/>
-      <c r="G719" s="32"/>
+      <c r="D719" s="27"/>
+      <c r="G719" s="28"/>
     </row>
     <row r="720" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D720" s="31"/>
-      <c r="G720" s="32"/>
+      <c r="D720" s="27"/>
+      <c r="G720" s="28"/>
     </row>
     <row r="721" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D721" s="31"/>
-      <c r="G721" s="32"/>
+      <c r="D721" s="27"/>
+      <c r="G721" s="28"/>
     </row>
     <row r="722" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D722" s="31"/>
-      <c r="G722" s="32"/>
+      <c r="D722" s="27"/>
+      <c r="G722" s="28"/>
     </row>
     <row r="723" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D723" s="31"/>
-      <c r="G723" s="32"/>
+      <c r="D723" s="27"/>
+      <c r="G723" s="28"/>
     </row>
     <row r="724" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D724" s="31"/>
-      <c r="G724" s="32"/>
+      <c r="D724" s="27"/>
+      <c r="G724" s="28"/>
     </row>
     <row r="725" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D725" s="31"/>
-      <c r="G725" s="32"/>
+      <c r="D725" s="27"/>
+      <c r="G725" s="28"/>
     </row>
     <row r="726" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D726" s="31"/>
-      <c r="G726" s="32"/>
+      <c r="D726" s="27"/>
+      <c r="G726" s="28"/>
     </row>
     <row r="727" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D727" s="31"/>
-      <c r="G727" s="32"/>
+      <c r="D727" s="27"/>
+      <c r="G727" s="28"/>
     </row>
     <row r="728" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D728" s="31"/>
-      <c r="G728" s="32"/>
+      <c r="D728" s="27"/>
+      <c r="G728" s="28"/>
     </row>
     <row r="729" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D729" s="31"/>
-      <c r="G729" s="32"/>
+      <c r="D729" s="27"/>
+      <c r="G729" s="28"/>
     </row>
     <row r="730" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D730" s="31"/>
-      <c r="G730" s="32"/>
+      <c r="D730" s="27"/>
+      <c r="G730" s="28"/>
     </row>
     <row r="731" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D731" s="31"/>
-      <c r="G731" s="32"/>
+      <c r="D731" s="27"/>
+      <c r="G731" s="28"/>
     </row>
     <row r="732" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D732" s="31"/>
-      <c r="G732" s="32"/>
+      <c r="D732" s="27"/>
+      <c r="G732" s="28"/>
     </row>
     <row r="733" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D733" s="31"/>
-      <c r="G733" s="32"/>
+      <c r="D733" s="27"/>
+      <c r="G733" s="28"/>
     </row>
     <row r="734" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D734" s="31"/>
-      <c r="G734" s="32"/>
+      <c r="D734" s="27"/>
+      <c r="G734" s="28"/>
     </row>
     <row r="735" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D735" s="31"/>
-      <c r="G735" s="32"/>
+      <c r="D735" s="27"/>
+      <c r="G735" s="28"/>
     </row>
     <row r="736" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D736" s="31"/>
-      <c r="G736" s="32"/>
+      <c r="D736" s="27"/>
+      <c r="G736" s="28"/>
     </row>
     <row r="737" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D737" s="31"/>
-      <c r="G737" s="32"/>
+      <c r="D737" s="27"/>
+      <c r="G737" s="28"/>
     </row>
     <row r="738" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D738" s="31"/>
-      <c r="G738" s="32"/>
+      <c r="D738" s="27"/>
+      <c r="G738" s="28"/>
     </row>
     <row r="739" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D739" s="31"/>
-      <c r="G739" s="32"/>
+      <c r="D739" s="27"/>
+      <c r="G739" s="28"/>
     </row>
     <row r="740" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D740" s="31"/>
-      <c r="G740" s="32"/>
+      <c r="D740" s="27"/>
+      <c r="G740" s="28"/>
     </row>
     <row r="741" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D741" s="31"/>
-      <c r="G741" s="32"/>
+      <c r="D741" s="27"/>
+      <c r="G741" s="28"/>
     </row>
     <row r="742" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D742" s="31"/>
-      <c r="G742" s="32"/>
+      <c r="D742" s="27"/>
+      <c r="G742" s="28"/>
     </row>
     <row r="743" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D743" s="31"/>
-      <c r="G743" s="32"/>
+      <c r="D743" s="27"/>
+      <c r="G743" s="28"/>
     </row>
     <row r="744" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D744" s="31"/>
-      <c r="G744" s="32"/>
+      <c r="D744" s="27"/>
+      <c r="G744" s="28"/>
     </row>
     <row r="745" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D745" s="31"/>
-      <c r="G745" s="32"/>
+      <c r="D745" s="27"/>
+      <c r="G745" s="28"/>
     </row>
     <row r="746" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D746" s="31"/>
-      <c r="G746" s="32"/>
+      <c r="D746" s="27"/>
+      <c r="G746" s="28"/>
     </row>
     <row r="747" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D747" s="31"/>
-      <c r="G747" s="32"/>
+      <c r="D747" s="27"/>
+      <c r="G747" s="28"/>
     </row>
     <row r="748" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D748" s="31"/>
-      <c r="G748" s="32"/>
+      <c r="D748" s="27"/>
+      <c r="G748" s="28"/>
     </row>
     <row r="749" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D749" s="31"/>
-      <c r="G749" s="32"/>
+      <c r="D749" s="27"/>
+      <c r="G749" s="28"/>
     </row>
     <row r="750" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D750" s="31"/>
-      <c r="G750" s="32"/>
+      <c r="D750" s="27"/>
+      <c r="G750" s="28"/>
     </row>
     <row r="751" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D751" s="31"/>
-      <c r="G751" s="32"/>
+      <c r="D751" s="27"/>
+      <c r="G751" s="28"/>
     </row>
     <row r="752" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D752" s="31"/>
-      <c r="G752" s="32"/>
+      <c r="D752" s="27"/>
+      <c r="G752" s="28"/>
     </row>
     <row r="753" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D753" s="31"/>
-      <c r="G753" s="32"/>
+      <c r="D753" s="27"/>
+      <c r="G753" s="28"/>
     </row>
     <row r="754" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D754" s="31"/>
-      <c r="G754" s="32"/>
+      <c r="D754" s="27"/>
+      <c r="G754" s="28"/>
     </row>
     <row r="755" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D755" s="31"/>
-      <c r="G755" s="32"/>
+      <c r="D755" s="27"/>
+      <c r="G755" s="28"/>
     </row>
     <row r="756" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D756" s="31"/>
-      <c r="G756" s="32"/>
+      <c r="D756" s="27"/>
+      <c r="G756" s="28"/>
     </row>
     <row r="757" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D757" s="31"/>
-      <c r="G757" s="32"/>
+      <c r="D757" s="27"/>
+      <c r="G757" s="28"/>
     </row>
     <row r="758" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D758" s="31"/>
-      <c r="G758" s="32"/>
+      <c r="D758" s="27"/>
+      <c r="G758" s="28"/>
     </row>
     <row r="759" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D759" s="31"/>
-      <c r="G759" s="32"/>
+      <c r="D759" s="27"/>
+      <c r="G759" s="28"/>
     </row>
     <row r="760" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D760" s="31"/>
-      <c r="G760" s="32"/>
+      <c r="D760" s="27"/>
+      <c r="G760" s="28"/>
     </row>
     <row r="761" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D761" s="31"/>
-      <c r="G761" s="32"/>
+      <c r="D761" s="27"/>
+      <c r="G761" s="28"/>
     </row>
     <row r="762" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D762" s="31"/>
-      <c r="G762" s="32"/>
+      <c r="D762" s="27"/>
+      <c r="G762" s="28"/>
     </row>
     <row r="763" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D763" s="31"/>
-      <c r="G763" s="32"/>
+      <c r="D763" s="27"/>
+      <c r="G763" s="28"/>
     </row>
     <row r="764" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D764" s="31"/>
-      <c r="G764" s="32"/>
+      <c r="D764" s="27"/>
+      <c r="G764" s="28"/>
     </row>
     <row r="765" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D765" s="31"/>
-      <c r="G765" s="32"/>
+      <c r="D765" s="27"/>
+      <c r="G765" s="28"/>
     </row>
     <row r="766" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D766" s="31"/>
-      <c r="G766" s="32"/>
+      <c r="D766" s="27"/>
+      <c r="G766" s="28"/>
     </row>
     <row r="767" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D767" s="31"/>
-      <c r="G767" s="32"/>
+      <c r="D767" s="27"/>
+      <c r="G767" s="28"/>
     </row>
     <row r="768" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D768" s="31"/>
-      <c r="G768" s="32"/>
+      <c r="D768" s="27"/>
+      <c r="G768" s="28"/>
     </row>
     <row r="769" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D769" s="31"/>
-      <c r="G769" s="32"/>
+      <c r="D769" s="27"/>
+      <c r="G769" s="28"/>
     </row>
     <row r="770" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D770" s="31"/>
-      <c r="G770" s="32"/>
+      <c r="D770" s="27"/>
+      <c r="G770" s="28"/>
     </row>
     <row r="771" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D771" s="31"/>
-      <c r="G771" s="32"/>
+      <c r="D771" s="27"/>
+      <c r="G771" s="28"/>
     </row>
     <row r="772" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D772" s="31"/>
-      <c r="G772" s="32"/>
+      <c r="D772" s="27"/>
+      <c r="G772" s="28"/>
     </row>
     <row r="773" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D773" s="31"/>
-      <c r="G773" s="32"/>
+      <c r="D773" s="27"/>
+      <c r="G773" s="28"/>
     </row>
     <row r="774" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D774" s="31"/>
-      <c r="G774" s="32"/>
+      <c r="D774" s="27"/>
+      <c r="G774" s="28"/>
     </row>
     <row r="775" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D775" s="31"/>
-      <c r="G775" s="32"/>
+      <c r="D775" s="27"/>
+      <c r="G775" s="28"/>
     </row>
     <row r="776" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D776" s="31"/>
-      <c r="G776" s="32"/>
+      <c r="D776" s="27"/>
+      <c r="G776" s="28"/>
     </row>
     <row r="777" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D777" s="31"/>
-      <c r="G777" s="32"/>
+      <c r="D777" s="27"/>
+      <c r="G777" s="28"/>
     </row>
     <row r="778" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D778" s="31"/>
-      <c r="G778" s="32"/>
+      <c r="D778" s="27"/>
+      <c r="G778" s="28"/>
     </row>
     <row r="779" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D779" s="31"/>
-      <c r="G779" s="32"/>
+      <c r="D779" s="27"/>
+      <c r="G779" s="28"/>
     </row>
     <row r="780" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D780" s="31"/>
-      <c r="G780" s="32"/>
+      <c r="D780" s="27"/>
+      <c r="G780" s="28"/>
     </row>
     <row r="781" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D781" s="31"/>
-      <c r="G781" s="32"/>
+      <c r="D781" s="27"/>
+      <c r="G781" s="28"/>
     </row>
     <row r="782" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D782" s="31"/>
-      <c r="G782" s="32"/>
+      <c r="D782" s="27"/>
+      <c r="G782" s="28"/>
     </row>
     <row r="783" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D783" s="31"/>
-      <c r="G783" s="32"/>
+      <c r="D783" s="27"/>
+      <c r="G783" s="28"/>
     </row>
     <row r="784" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D784" s="31"/>
-      <c r="G784" s="32"/>
+      <c r="D784" s="27"/>
+      <c r="G784" s="28"/>
     </row>
     <row r="785" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D785" s="31"/>
-      <c r="G785" s="32"/>
+      <c r="D785" s="27"/>
+      <c r="G785" s="28"/>
     </row>
     <row r="786" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D786" s="31"/>
-      <c r="G786" s="32"/>
+      <c r="D786" s="27"/>
+      <c r="G786" s="28"/>
     </row>
     <row r="787" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D787" s="31"/>
-      <c r="G787" s="32"/>
+      <c r="D787" s="27"/>
+      <c r="G787" s="28"/>
     </row>
     <row r="788" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D788" s="31"/>
-      <c r="G788" s="32"/>
+      <c r="D788" s="27"/>
+      <c r="G788" s="28"/>
     </row>
     <row r="789" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D789" s="31"/>
-      <c r="G789" s="32"/>
+      <c r="D789" s="27"/>
+      <c r="G789" s="28"/>
     </row>
     <row r="790" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D790" s="31"/>
-      <c r="G790" s="32"/>
+      <c r="D790" s="27"/>
+      <c r="G790" s="28"/>
     </row>
     <row r="791" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D791" s="31"/>
-      <c r="G791" s="32"/>
+      <c r="D791" s="27"/>
+      <c r="G791" s="28"/>
     </row>
     <row r="792" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D792" s="31"/>
-      <c r="G792" s="32"/>
+      <c r="D792" s="27"/>
+      <c r="G792" s="28"/>
     </row>
     <row r="793" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D793" s="31"/>
-      <c r="G793" s="32"/>
+      <c r="D793" s="27"/>
+      <c r="G793" s="28"/>
     </row>
     <row r="794" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D794" s="31"/>
-      <c r="G794" s="32"/>
+      <c r="D794" s="27"/>
+      <c r="G794" s="28"/>
     </row>
     <row r="795" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D795" s="31"/>
-      <c r="G795" s="32"/>
+      <c r="D795" s="27"/>
+      <c r="G795" s="28"/>
     </row>
     <row r="796" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D796" s="31"/>
-      <c r="G796" s="32"/>
+      <c r="D796" s="27"/>
+      <c r="G796" s="28"/>
     </row>
     <row r="797" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D797" s="31"/>
-      <c r="G797" s="32"/>
+      <c r="D797" s="27"/>
+      <c r="G797" s="28"/>
     </row>
     <row r="798" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D798" s="31"/>
-      <c r="G798" s="32"/>
+      <c r="D798" s="27"/>
+      <c r="G798" s="28"/>
     </row>
     <row r="799" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D799" s="31"/>
-      <c r="G799" s="32"/>
+      <c r="D799" s="27"/>
+      <c r="G799" s="28"/>
     </row>
     <row r="800" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D800" s="31"/>
-      <c r="G800" s="32"/>
+      <c r="D800" s="27"/>
+      <c r="G800" s="28"/>
     </row>
     <row r="801" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D801" s="31"/>
-      <c r="G801" s="32"/>
+      <c r="D801" s="27"/>
+      <c r="G801" s="28"/>
     </row>
     <row r="802" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D802" s="31"/>
-      <c r="G802" s="32"/>
+      <c r="D802" s="27"/>
+      <c r="G802" s="28"/>
     </row>
     <row r="803" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D803" s="31"/>
-      <c r="G803" s="32"/>
+      <c r="D803" s="27"/>
+      <c r="G803" s="28"/>
     </row>
     <row r="804" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D804" s="31"/>
-      <c r="G804" s="32"/>
+      <c r="D804" s="27"/>
+      <c r="G804" s="28"/>
     </row>
     <row r="805" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D805" s="31"/>
-      <c r="G805" s="32"/>
+      <c r="D805" s="27"/>
+      <c r="G805" s="28"/>
     </row>
     <row r="806" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D806" s="31"/>
-      <c r="G806" s="32"/>
+      <c r="D806" s="27"/>
+      <c r="G806" s="28"/>
     </row>
     <row r="807" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D807" s="31"/>
-      <c r="G807" s="32"/>
+      <c r="D807" s="27"/>
+      <c r="G807" s="28"/>
     </row>
     <row r="808" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D808" s="31"/>
-      <c r="G808" s="32"/>
+      <c r="D808" s="27"/>
+      <c r="G808" s="28"/>
     </row>
     <row r="809" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D809" s="31"/>
-      <c r="G809" s="32"/>
+      <c r="D809" s="27"/>
+      <c r="G809" s="28"/>
     </row>
     <row r="810" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D810" s="31"/>
-      <c r="G810" s="32"/>
+      <c r="D810" s="27"/>
+      <c r="G810" s="28"/>
     </row>
     <row r="811" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D811" s="31"/>
-      <c r="G811" s="32"/>
+      <c r="D811" s="27"/>
+      <c r="G811" s="28"/>
     </row>
     <row r="812" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D812" s="31"/>
-      <c r="G812" s="32"/>
+      <c r="D812" s="27"/>
+      <c r="G812" s="28"/>
     </row>
     <row r="813" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D813" s="31"/>
-      <c r="G813" s="32"/>
+      <c r="D813" s="27"/>
+      <c r="G813" s="28"/>
     </row>
     <row r="814" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D814" s="31"/>
-      <c r="G814" s="32"/>
+      <c r="D814" s="27"/>
+      <c r="G814" s="28"/>
     </row>
     <row r="815" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D815" s="31"/>
-      <c r="G815" s="32"/>
+      <c r="D815" s="27"/>
+      <c r="G815" s="28"/>
     </row>
     <row r="816" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D816" s="31"/>
-      <c r="G816" s="32"/>
+      <c r="D816" s="27"/>
+      <c r="G816" s="28"/>
     </row>
     <row r="817" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D817" s="31"/>
-      <c r="G817" s="32"/>
+      <c r="D817" s="27"/>
+      <c r="G817" s="28"/>
     </row>
     <row r="818" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D818" s="31"/>
-      <c r="G818" s="32"/>
+      <c r="D818" s="27"/>
+      <c r="G818" s="28"/>
     </row>
     <row r="819" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D819" s="31"/>
-      <c r="G819" s="32"/>
+      <c r="D819" s="27"/>
+      <c r="G819" s="28"/>
     </row>
     <row r="820" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D820" s="31"/>
-      <c r="G820" s="32"/>
+      <c r="D820" s="27"/>
+      <c r="G820" s="28"/>
     </row>
     <row r="821" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D821" s="31"/>
-      <c r="G821" s="32"/>
+      <c r="D821" s="27"/>
+      <c r="G821" s="28"/>
     </row>
     <row r="822" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D822" s="31"/>
-      <c r="G822" s="32"/>
+      <c r="D822" s="27"/>
+      <c r="G822" s="28"/>
     </row>
     <row r="823" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D823" s="31"/>
-      <c r="G823" s="32"/>
+      <c r="D823" s="27"/>
+      <c r="G823" s="28"/>
     </row>
     <row r="824" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D824" s="31"/>
-      <c r="G824" s="32"/>
+      <c r="D824" s="27"/>
+      <c r="G824" s="28"/>
     </row>
     <row r="825" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D825" s="31"/>
-      <c r="G825" s="32"/>
+      <c r="D825" s="27"/>
+      <c r="G825" s="28"/>
     </row>
     <row r="826" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D826" s="31"/>
-      <c r="G826" s="32"/>
+      <c r="D826" s="27"/>
+      <c r="G826" s="28"/>
     </row>
     <row r="827" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D827" s="31"/>
-      <c r="G827" s="32"/>
+      <c r="D827" s="27"/>
+      <c r="G827" s="28"/>
     </row>
     <row r="828" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D828" s="31"/>
-      <c r="G828" s="32"/>
+      <c r="D828" s="27"/>
+      <c r="G828" s="28"/>
     </row>
     <row r="829" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D829" s="31"/>
-      <c r="G829" s="32"/>
+      <c r="D829" s="27"/>
+      <c r="G829" s="28"/>
     </row>
     <row r="830" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D830" s="31"/>
-      <c r="G830" s="32"/>
+      <c r="D830" s="27"/>
+      <c r="G830" s="28"/>
     </row>
     <row r="831" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D831" s="31"/>
-      <c r="G831" s="32"/>
+      <c r="D831" s="27"/>
+      <c r="G831" s="28"/>
     </row>
     <row r="832" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D832" s="31"/>
-      <c r="G832" s="32"/>
+      <c r="D832" s="27"/>
+      <c r="G832" s="28"/>
     </row>
     <row r="833" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D833" s="31"/>
-      <c r="G833" s="32"/>
+      <c r="D833" s="27"/>
+      <c r="G833" s="28"/>
     </row>
     <row r="834" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D834" s="31"/>
-      <c r="G834" s="32"/>
+      <c r="D834" s="27"/>
+      <c r="G834" s="28"/>
     </row>
     <row r="835" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D835" s="31"/>
-      <c r="G835" s="32"/>
+      <c r="D835" s="27"/>
+      <c r="G835" s="28"/>
     </row>
     <row r="836" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D836" s="31"/>
-      <c r="G836" s="32"/>
+      <c r="D836" s="27"/>
+      <c r="G836" s="28"/>
     </row>
     <row r="837" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D837" s="31"/>
-      <c r="G837" s="32"/>
+      <c r="D837" s="27"/>
+      <c r="G837" s="28"/>
     </row>
     <row r="838" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D838" s="31"/>
-      <c r="G838" s="32"/>
+      <c r="D838" s="27"/>
+      <c r="G838" s="28"/>
     </row>
     <row r="839" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D839" s="31"/>
-      <c r="G839" s="32"/>
+      <c r="D839" s="27"/>
+      <c r="G839" s="28"/>
     </row>
     <row r="840" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D840" s="31"/>
-      <c r="G840" s="32"/>
+      <c r="D840" s="27"/>
+      <c r="G840" s="28"/>
     </row>
     <row r="841" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D841" s="31"/>
-      <c r="G841" s="32"/>
+      <c r="D841" s="27"/>
+      <c r="G841" s="28"/>
     </row>
     <row r="842" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D842" s="31"/>
-      <c r="G842" s="32"/>
+      <c r="D842" s="27"/>
+      <c r="G842" s="28"/>
     </row>
     <row r="843" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D843" s="31"/>
-      <c r="G843" s="32"/>
+      <c r="D843" s="27"/>
+      <c r="G843" s="28"/>
     </row>
     <row r="844" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D844" s="31"/>
-      <c r="G844" s="32"/>
+      <c r="D844" s="27"/>
+      <c r="G844" s="28"/>
     </row>
     <row r="845" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D845" s="31"/>
-      <c r="G845" s="32"/>
+      <c r="D845" s="27"/>
+      <c r="G845" s="28"/>
     </row>
     <row r="846" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D846" s="31"/>
-      <c r="G846" s="32"/>
+      <c r="D846" s="27"/>
+      <c r="G846" s="28"/>
     </row>
     <row r="847" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D847" s="31"/>
-      <c r="G847" s="32"/>
+      <c r="D847" s="27"/>
+      <c r="G847" s="28"/>
     </row>
     <row r="848" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D848" s="31"/>
-      <c r="G848" s="32"/>
+      <c r="D848" s="27"/>
+      <c r="G848" s="28"/>
     </row>
     <row r="849" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D849" s="31"/>
-      <c r="G849" s="32"/>
+      <c r="D849" s="27"/>
+      <c r="G849" s="28"/>
     </row>
     <row r="850" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D850" s="31"/>
-      <c r="G850" s="32"/>
+      <c r="D850" s="27"/>
+      <c r="G850" s="28"/>
     </row>
     <row r="851" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D851" s="31"/>
-      <c r="G851" s="32"/>
+      <c r="D851" s="27"/>
+      <c r="G851" s="28"/>
     </row>
     <row r="852" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D852" s="31"/>
-      <c r="G852" s="32"/>
+      <c r="D852" s="27"/>
+      <c r="G852" s="28"/>
     </row>
     <row r="853" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D853" s="31"/>
-      <c r="G853" s="32"/>
+      <c r="D853" s="27"/>
+      <c r="G853" s="28"/>
     </row>
     <row r="854" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D854" s="31"/>
-      <c r="G854" s="32"/>
+      <c r="D854" s="27"/>
+      <c r="G854" s="28"/>
     </row>
     <row r="855" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D855" s="31"/>
-      <c r="G855" s="32"/>
+      <c r="D855" s="27"/>
+      <c r="G855" s="28"/>
     </row>
     <row r="856" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D856" s="31"/>
-      <c r="G856" s="32"/>
+      <c r="D856" s="27"/>
+      <c r="G856" s="28"/>
     </row>
     <row r="857" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D857" s="31"/>
-      <c r="G857" s="32"/>
+      <c r="D857" s="27"/>
+      <c r="G857" s="28"/>
     </row>
     <row r="858" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D858" s="31"/>
-      <c r="G858" s="32"/>
+      <c r="D858" s="27"/>
+      <c r="G858" s="28"/>
     </row>
     <row r="859" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D859" s="31"/>
-      <c r="G859" s="32"/>
+      <c r="D859" s="27"/>
+      <c r="G859" s="28"/>
     </row>
     <row r="860" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D860" s="31"/>
-      <c r="G860" s="32"/>
+      <c r="D860" s="27"/>
+      <c r="G860" s="28"/>
     </row>
     <row r="861" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D861" s="31"/>
-      <c r="G861" s="32"/>
+      <c r="D861" s="27"/>
+      <c r="G861" s="28"/>
     </row>
     <row r="862" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D862" s="31"/>
-      <c r="G862" s="32"/>
+      <c r="D862" s="27"/>
+      <c r="G862" s="28"/>
     </row>
     <row r="863" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D863" s="31"/>
-      <c r="G863" s="32"/>
+      <c r="D863" s="27"/>
+      <c r="G863" s="28"/>
     </row>
     <row r="864" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D864" s="31"/>
-      <c r="G864" s="32"/>
+      <c r="D864" s="27"/>
+      <c r="G864" s="28"/>
     </row>
     <row r="865" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D865" s="31"/>
-      <c r="G865" s="32"/>
+      <c r="D865" s="27"/>
+      <c r="G865" s="28"/>
     </row>
     <row r="866" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D866" s="31"/>
-      <c r="G866" s="32"/>
+      <c r="D866" s="27"/>
+      <c r="G866" s="28"/>
     </row>
     <row r="867" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D867" s="31"/>
-      <c r="G867" s="32"/>
+      <c r="D867" s="27"/>
+      <c r="G867" s="28"/>
     </row>
     <row r="868" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D868" s="31"/>
-      <c r="G868" s="32"/>
+      <c r="D868" s="27"/>
+      <c r="G868" s="28"/>
     </row>
     <row r="869" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D869" s="31"/>
-      <c r="G869" s="32"/>
+      <c r="D869" s="27"/>
+      <c r="G869" s="28"/>
     </row>
     <row r="870" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D870" s="31"/>
-      <c r="G870" s="32"/>
+      <c r="D870" s="27"/>
+      <c r="G870" s="28"/>
     </row>
     <row r="871" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D871" s="31"/>
-      <c r="G871" s="32"/>
+      <c r="D871" s="27"/>
+      <c r="G871" s="28"/>
     </row>
     <row r="872" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D872" s="31"/>
-      <c r="G872" s="32"/>
+      <c r="D872" s="27"/>
+      <c r="G872" s="28"/>
     </row>
     <row r="873" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D873" s="31"/>
-      <c r="G873" s="32"/>
+      <c r="D873" s="27"/>
+      <c r="G873" s="28"/>
     </row>
     <row r="874" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D874" s="31"/>
-      <c r="G874" s="32"/>
+      <c r="D874" s="27"/>
+      <c r="G874" s="28"/>
     </row>
     <row r="875" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D875" s="31"/>
-      <c r="G875" s="32"/>
+      <c r="D875" s="27"/>
+      <c r="G875" s="28"/>
     </row>
     <row r="876" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D876" s="31"/>
-      <c r="G876" s="32"/>
+      <c r="D876" s="27"/>
+      <c r="G876" s="28"/>
     </row>
     <row r="877" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D877" s="31"/>
-      <c r="G877" s="32"/>
+      <c r="D877" s="27"/>
+      <c r="G877" s="28"/>
     </row>
     <row r="878" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D878" s="31"/>
-      <c r="G878" s="32"/>
+      <c r="D878" s="27"/>
+      <c r="G878" s="28"/>
     </row>
     <row r="879" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D879" s="31"/>
-      <c r="G879" s="32"/>
+      <c r="D879" s="27"/>
+      <c r="G879" s="28"/>
     </row>
     <row r="880" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D880" s="31"/>
-      <c r="G880" s="32"/>
+      <c r="D880" s="27"/>
+      <c r="G880" s="28"/>
     </row>
     <row r="881" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D881" s="31"/>
-      <c r="G881" s="32"/>
+      <c r="D881" s="27"/>
+      <c r="G881" s="28"/>
     </row>
     <row r="882" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D882" s="31"/>
-      <c r="G882" s="32"/>
+      <c r="D882" s="27"/>
+      <c r="G882" s="28"/>
     </row>
     <row r="883" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D883" s="31"/>
-      <c r="G883" s="32"/>
+      <c r="D883" s="27"/>
+      <c r="G883" s="28"/>
     </row>
     <row r="884" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D884" s="31"/>
-      <c r="G884" s="32"/>
+      <c r="D884" s="27"/>
+      <c r="G884" s="28"/>
     </row>
     <row r="885" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D885" s="31"/>
-      <c r="G885" s="32"/>
+      <c r="D885" s="27"/>
+      <c r="G885" s="28"/>
     </row>
     <row r="886" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D886" s="31"/>
-      <c r="G886" s="32"/>
+      <c r="D886" s="27"/>
+      <c r="G886" s="28"/>
     </row>
     <row r="887" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D887" s="31"/>
-      <c r="G887" s="32"/>
+      <c r="D887" s="27"/>
+      <c r="G887" s="28"/>
     </row>
     <row r="888" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D888" s="31"/>
-      <c r="G888" s="32"/>
+      <c r="D888" s="27"/>
+      <c r="G888" s="28"/>
     </row>
     <row r="889" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D889" s="31"/>
-      <c r="G889" s="32"/>
+      <c r="D889" s="27"/>
+      <c r="G889" s="28"/>
     </row>
     <row r="890" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D890" s="31"/>
-      <c r="G890" s="32"/>
+      <c r="D890" s="27"/>
+      <c r="G890" s="28"/>
     </row>
     <row r="891" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D891" s="31"/>
-      <c r="G891" s="32"/>
+      <c r="D891" s="27"/>
+      <c r="G891" s="28"/>
     </row>
     <row r="892" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D892" s="31"/>
-      <c r="G892" s="32"/>
+      <c r="D892" s="27"/>
+      <c r="G892" s="28"/>
     </row>
     <row r="893" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D893" s="31"/>
-      <c r="G893" s="32"/>
+      <c r="D893" s="27"/>
+      <c r="G893" s="28"/>
     </row>
     <row r="894" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D894" s="31"/>
-      <c r="G894" s="32"/>
+      <c r="D894" s="27"/>
+      <c r="G894" s="28"/>
     </row>
     <row r="895" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D895" s="31"/>
-      <c r="G895" s="32"/>
+      <c r="D895" s="27"/>
+      <c r="G895" s="28"/>
     </row>
     <row r="896" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D896" s="31"/>
-      <c r="G896" s="32"/>
+      <c r="D896" s="27"/>
+      <c r="G896" s="28"/>
     </row>
     <row r="897" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D897" s="31"/>
-      <c r="G897" s="32"/>
+      <c r="D897" s="27"/>
+      <c r="G897" s="28"/>
     </row>
     <row r="898" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D898" s="31"/>
-      <c r="G898" s="32"/>
+      <c r="D898" s="27"/>
+      <c r="G898" s="28"/>
     </row>
     <row r="899" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D899" s="31"/>
-      <c r="G899" s="32"/>
+      <c r="D899" s="27"/>
+      <c r="G899" s="28"/>
     </row>
     <row r="900" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D900" s="31"/>
-      <c r="G900" s="32"/>
+      <c r="D900" s="27"/>
+      <c r="G900" s="28"/>
     </row>
     <row r="901" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D901" s="31"/>
-      <c r="G901" s="32"/>
+      <c r="D901" s="27"/>
+      <c r="G901" s="28"/>
     </row>
     <row r="902" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D902" s="31"/>
-      <c r="G902" s="32"/>
+      <c r="D902" s="27"/>
+      <c r="G902" s="28"/>
     </row>
     <row r="903" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D903" s="31"/>
-      <c r="G903" s="32"/>
+      <c r="D903" s="27"/>
+      <c r="G903" s="28"/>
     </row>
     <row r="904" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D904" s="31"/>
-      <c r="G904" s="32"/>
+      <c r="D904" s="27"/>
+      <c r="G904" s="28"/>
     </row>
     <row r="905" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D905" s="31"/>
-      <c r="G905" s="32"/>
+      <c r="D905" s="27"/>
+      <c r="G905" s="28"/>
     </row>
     <row r="906" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D906" s="31"/>
-      <c r="G906" s="32"/>
+      <c r="D906" s="27"/>
+      <c r="G906" s="28"/>
     </row>
     <row r="907" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D907" s="31"/>
-      <c r="G907" s="32"/>
+      <c r="D907" s="27"/>
+      <c r="G907" s="28"/>
     </row>
     <row r="908" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D908" s="31"/>
-      <c r="G908" s="32"/>
+      <c r="D908" s="27"/>
+      <c r="G908" s="28"/>
     </row>
     <row r="909" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D909" s="31"/>
-      <c r="G909" s="32"/>
+      <c r="D909" s="27"/>
+      <c r="G909" s="28"/>
     </row>
     <row r="910" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D910" s="31"/>
-      <c r="G910" s="32"/>
+      <c r="D910" s="27"/>
+      <c r="G910" s="28"/>
     </row>
     <row r="911" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D911" s="31"/>
-      <c r="G911" s="32"/>
+      <c r="D911" s="27"/>
+      <c r="G911" s="28"/>
     </row>
     <row r="912" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D912" s="31"/>
-      <c r="G912" s="32"/>
+      <c r="D912" s="27"/>
+      <c r="G912" s="28"/>
     </row>
     <row r="913" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D913" s="31"/>
-      <c r="G913" s="32"/>
+      <c r="D913" s="27"/>
+      <c r="G913" s="28"/>
     </row>
     <row r="914" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D914" s="31"/>
-      <c r="G914" s="32"/>
+      <c r="D914" s="27"/>
+      <c r="G914" s="28"/>
     </row>
     <row r="915" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D915" s="31"/>
-      <c r="G915" s="32"/>
+      <c r="D915" s="27"/>
+      <c r="G915" s="28"/>
     </row>
     <row r="916" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D916" s="31"/>
-      <c r="G916" s="32"/>
+      <c r="D916" s="27"/>
+      <c r="G916" s="28"/>
     </row>
     <row r="917" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D917" s="31"/>
-      <c r="G917" s="32"/>
+      <c r="D917" s="27"/>
+      <c r="G917" s="28"/>
     </row>
     <row r="918" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D918" s="31"/>
-      <c r="G918" s="32"/>
+      <c r="D918" s="27"/>
+      <c r="G918" s="28"/>
     </row>
     <row r="919" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D919" s="31"/>
-      <c r="G919" s="32"/>
+      <c r="D919" s="27"/>
+      <c r="G919" s="28"/>
     </row>
     <row r="920" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D920" s="31"/>
-      <c r="G920" s="32"/>
+      <c r="D920" s="27"/>
+      <c r="G920" s="28"/>
     </row>
     <row r="921" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D921" s="31"/>
-      <c r="G921" s="32"/>
+      <c r="D921" s="27"/>
+      <c r="G921" s="28"/>
     </row>
     <row r="922" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D922" s="31"/>
-      <c r="G922" s="32"/>
+      <c r="D922" s="27"/>
+      <c r="G922" s="28"/>
     </row>
     <row r="923" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D923" s="31"/>
-      <c r="G923" s="32"/>
+      <c r="D923" s="27"/>
+      <c r="G923" s="28"/>
     </row>
     <row r="924" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D924" s="31"/>
-      <c r="G924" s="32"/>
+      <c r="D924" s="27"/>
+      <c r="G924" s="28"/>
     </row>
     <row r="925" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D925" s="31"/>
-      <c r="G925" s="32"/>
+      <c r="D925" s="27"/>
+      <c r="G925" s="28"/>
     </row>
     <row r="926" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D926" s="31"/>
-      <c r="G926" s="32"/>
+      <c r="D926" s="27"/>
+      <c r="G926" s="28"/>
     </row>
     <row r="927" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D927" s="31"/>
-      <c r="G927" s="32"/>
+      <c r="D927" s="27"/>
+      <c r="G927" s="28"/>
     </row>
     <row r="928" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D928" s="31"/>
-      <c r="G928" s="32"/>
+      <c r="D928" s="27"/>
+      <c r="G928" s="28"/>
     </row>
     <row r="929" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D929" s="31"/>
-      <c r="G929" s="32"/>
+      <c r="D929" s="27"/>
+      <c r="G929" s="28"/>
     </row>
     <row r="930" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D930" s="31"/>
-      <c r="G930" s="32"/>
+      <c r="D930" s="27"/>
+      <c r="G930" s="28"/>
     </row>
     <row r="931" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D931" s="31"/>
-      <c r="G931" s="32"/>
+      <c r="D931" s="27"/>
+      <c r="G931" s="28"/>
     </row>
     <row r="932" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D932" s="31"/>
-      <c r="G932" s="32"/>
+      <c r="D932" s="27"/>
+      <c r="G932" s="28"/>
     </row>
     <row r="933" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D933" s="31"/>
-      <c r="G933" s="32"/>
+      <c r="D933" s="27"/>
+      <c r="G933" s="28"/>
     </row>
     <row r="934" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D934" s="31"/>
-      <c r="G934" s="32"/>
+      <c r="D934" s="27"/>
+      <c r="G934" s="28"/>
     </row>
     <row r="935" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D935" s="31"/>
-      <c r="G935" s="32"/>
+      <c r="D935" s="27"/>
+      <c r="G935" s="28"/>
     </row>
     <row r="936" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D936" s="31"/>
-      <c r="G936" s="32"/>
+      <c r="D936" s="27"/>
+      <c r="G936" s="28"/>
     </row>
     <row r="937" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D937" s="31"/>
-      <c r="G937" s="32"/>
+      <c r="D937" s="27"/>
+      <c r="G937" s="28"/>
     </row>
     <row r="938" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D938" s="31"/>
-      <c r="G938" s="32"/>
+      <c r="D938" s="27"/>
+      <c r="G938" s="28"/>
     </row>
     <row r="939" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D939" s="31"/>
-      <c r="G939" s="32"/>
+      <c r="D939" s="27"/>
+      <c r="G939" s="28"/>
     </row>
     <row r="940" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D940" s="31"/>
-      <c r="G940" s="32"/>
+      <c r="D940" s="27"/>
+      <c r="G940" s="28"/>
     </row>
     <row r="941" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D941" s="31"/>
-      <c r="G941" s="32"/>
+      <c r="D941" s="27"/>
+      <c r="G941" s="28"/>
     </row>
     <row r="942" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D942" s="31"/>
-      <c r="G942" s="32"/>
+      <c r="D942" s="27"/>
+      <c r="G942" s="28"/>
     </row>
     <row r="943" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D943" s="31"/>
-      <c r="G943" s="32"/>
+      <c r="D943" s="27"/>
+      <c r="G943" s="28"/>
     </row>
     <row r="944" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D944" s="31"/>
-      <c r="G944" s="32"/>
+      <c r="D944" s="27"/>
+      <c r="G944" s="28"/>
     </row>
     <row r="945" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D945" s="31"/>
-      <c r="G945" s="32"/>
+      <c r="D945" s="27"/>
+      <c r="G945" s="28"/>
     </row>
     <row r="946" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D946" s="31"/>
-      <c r="G946" s="32"/>
+      <c r="D946" s="27"/>
+      <c r="G946" s="28"/>
     </row>
     <row r="947" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D947" s="31"/>
-      <c r="G947" s="32"/>
+      <c r="D947" s="27"/>
+      <c r="G947" s="28"/>
     </row>
     <row r="948" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D948" s="31"/>
-      <c r="G948" s="32"/>
+      <c r="D948" s="27"/>
+      <c r="G948" s="28"/>
     </row>
     <row r="949" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D949" s="31"/>
-      <c r="G949" s="32"/>
+      <c r="D949" s="27"/>
+      <c r="G949" s="28"/>
     </row>
     <row r="950" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D950" s="31"/>
-      <c r="G950" s="32"/>
+      <c r="D950" s="27"/>
+      <c r="G950" s="28"/>
     </row>
     <row r="951" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D951" s="31"/>
-      <c r="G951" s="32"/>
+      <c r="D951" s="27"/>
+      <c r="G951" s="28"/>
     </row>
     <row r="952" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D952" s="31"/>
-      <c r="G952" s="32"/>
+      <c r="D952" s="27"/>
+      <c r="G952" s="28"/>
     </row>
     <row r="953" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D953" s="31"/>
-      <c r="G953" s="32"/>
+      <c r="D953" s="27"/>
+      <c r="G953" s="28"/>
     </row>
     <row r="954" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D954" s="31"/>
-      <c r="G954" s="32"/>
+      <c r="D954" s="27"/>
+      <c r="G954" s="28"/>
     </row>
     <row r="955" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D955" s="31"/>
-      <c r="G955" s="32"/>
+      <c r="D955" s="27"/>
+      <c r="G955" s="28"/>
     </row>
     <row r="956" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D956" s="31"/>
-      <c r="G956" s="32"/>
+      <c r="D956" s="27"/>
+      <c r="G956" s="28"/>
     </row>
     <row r="957" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D957" s="31"/>
-      <c r="G957" s="32"/>
+      <c r="D957" s="27"/>
+      <c r="G957" s="28"/>
     </row>
     <row r="958" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D958" s="31"/>
-      <c r="G958" s="32"/>
+      <c r="D958" s="27"/>
+      <c r="G958" s="28"/>
     </row>
     <row r="959" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D959" s="31"/>
-      <c r="G959" s="32"/>
+      <c r="D959" s="27"/>
+      <c r="G959" s="28"/>
     </row>
     <row r="960" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D960" s="31"/>
-      <c r="G960" s="32"/>
+      <c r="D960" s="27"/>
+      <c r="G960" s="28"/>
     </row>
     <row r="961" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D961" s="31"/>
-      <c r="G961" s="32"/>
+      <c r="D961" s="27"/>
+      <c r="G961" s="28"/>
     </row>
     <row r="962" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D962" s="31"/>
-      <c r="G962" s="32"/>
+      <c r="D962" s="27"/>
+      <c r="G962" s="28"/>
     </row>
     <row r="963" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D963" s="31"/>
-      <c r="G963" s="32"/>
+      <c r="D963" s="27"/>
+      <c r="G963" s="28"/>
     </row>
     <row r="964" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D964" s="31"/>
-      <c r="G964" s="32"/>
+      <c r="D964" s="27"/>
+      <c r="G964" s="28"/>
     </row>
     <row r="965" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D965" s="31"/>
-      <c r="G965" s="32"/>
+      <c r="D965" s="27"/>
+      <c r="G965" s="28"/>
     </row>
     <row r="966" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D966" s="31"/>
-      <c r="G966" s="32"/>
-    </row>
-    <row r="967" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D967" s="31"/>
-      <c r="G967" s="32"/>
-    </row>
-    <row r="968" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D968" s="31"/>
-      <c r="G968" s="32"/>
-    </row>
-    <row r="969" spans="4:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="D969" s="31"/>
-      <c r="G969" s="32"/>
+      <c r="D966" s="27"/>
+      <c r="G966" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
